--- a/newRange/1000/Lh-x-process/14.2/14.2jx01处理Lh.xlsx
+++ b/newRange/1000/Lh-x-process/14.2/14.2jx01处理Lh.xlsx
@@ -65,8 +65,8 @@
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="21">
@@ -85,22 +85,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -114,8 +114,46 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,18 +175,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -160,54 +206,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,7 +237,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -249,175 +411,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,47 +455,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -522,6 +481,47 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -536,10 +536,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -548,133 +548,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1041,11 +1041,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:F1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F153" sqref="F153"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1285,7 +1285,7 @@
         <v>-21.1714380213078</v>
       </c>
     </row>
-    <row r="12" hidden="1" spans="1:6">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>0.119224163058327</v>
       </c>
     </row>
-    <row r="13" hidden="1" spans="1:6">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>0.116372727958149</v>
       </c>
     </row>
-    <row r="14" hidden="1" spans="1:6">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>-0.0510155358636961</v>
       </c>
     </row>
-    <row r="15" hidden="1" spans="1:6">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>0.00516304679285263</v>
       </c>
     </row>
-    <row r="16" hidden="1" spans="1:6">
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>0.0312365017212112</v>
       </c>
     </row>
-    <row r="17" hidden="1" spans="1:6">
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>0.00342079262639686</v>
       </c>
     </row>
-    <row r="18" hidden="1" spans="1:6">
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>0.0054086201093532</v>
       </c>
     </row>
-    <row r="19" hidden="1" spans="1:6">
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>0.000795336219044496</v>
       </c>
     </row>
-    <row r="20" hidden="1" spans="1:6">
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>0.0316109700723902</v>
       </c>
     </row>
-    <row r="21" hidden="1" spans="1:6">
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>-23.1361498451397</v>
       </c>
     </row>
-    <row r="22" hidden="1" spans="1:6">
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>0.1458203889087</v>
       </c>
     </row>
-    <row r="23" hidden="1" spans="1:6">
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>0.0189294720797179</v>
       </c>
     </row>
-    <row r="24" hidden="1" spans="1:6">
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>-0.0217207928740111</v>
       </c>
     </row>
-    <row r="25" hidden="1" spans="1:6">
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>0.0580200513409125</v>
       </c>
     </row>
-    <row r="26" hidden="1" spans="1:6">
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>0.0419700926349575</v>
       </c>
     </row>
-    <row r="27" hidden="1" spans="1:6">
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>0.0071554404072656</v>
       </c>
     </row>
-    <row r="28" hidden="1" spans="1:6">
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>0.0497806461704628</v>
       </c>
     </row>
-    <row r="29" hidden="1" spans="1:6">
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>0.0603255000603249</v>
       </c>
     </row>
-    <row r="30" hidden="1" spans="1:6">
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>0.0959836361455259</v>
       </c>
     </row>
-    <row r="31" hidden="1" spans="1:6">
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>-19.051574084329</v>
       </c>
     </row>
-    <row r="32" hidden="1" spans="1:6">
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>0.163789437371594</v>
       </c>
     </row>
-    <row r="33" hidden="1" spans="1:6">
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>0.00168233052001784</v>
       </c>
     </row>
-    <row r="34" hidden="1" spans="1:6">
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>-0.0454502006235892</v>
       </c>
     </row>
-    <row r="35" hidden="1" spans="1:6">
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>-0.0151890677413294</v>
       </c>
     </row>
-    <row r="36" hidden="1" spans="1:6">
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>0.0114613119570329</v>
       </c>
     </row>
-    <row r="37" hidden="1" spans="1:6">
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>0.0315252580475085</v>
       </c>
     </row>
-    <row r="38" hidden="1" spans="1:6">
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>0.0480924919316192</v>
       </c>
     </row>
-    <row r="39" hidden="1" spans="1:6">
+    <row r="39" spans="1:6">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>0.0653292706994733</v>
       </c>
     </row>
-    <row r="40" hidden="1" spans="1:6">
+    <row r="40" spans="1:6">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>0.0639699850185714</v>
       </c>
     </row>
-    <row r="41" hidden="1" spans="1:6">
+    <row r="41" spans="1:6">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>-15.3806480881486</v>
       </c>
     </row>
-    <row r="42" hidden="1" spans="1:6">
+    <row r="42" spans="1:6">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>0.0954608985824061</v>
       </c>
     </row>
-    <row r="43" hidden="1" spans="1:6">
+    <row r="43" spans="1:6">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>-0.11055876786252</v>
       </c>
     </row>
-    <row r="44" hidden="1" spans="1:6">
+    <row r="44" spans="1:6">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>-0.0297978109293593</v>
       </c>
     </row>
-    <row r="45" hidden="1" spans="1:6">
+    <row r="45" spans="1:6">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>-0.0219184555984547</v>
       </c>
     </row>
-    <row r="46" hidden="1" spans="1:6">
+    <row r="46" spans="1:6">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>-0.0208835812143184</v>
       </c>
     </row>
-    <row r="47" hidden="1" spans="1:6">
+    <row r="47" spans="1:6">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>0.0534221263769333</v>
       </c>
     </row>
-    <row r="48" hidden="1" spans="1:6">
+    <row r="48" spans="1:6">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>0.0306089008893203</v>
       </c>
     </row>
-    <row r="49" hidden="1" spans="1:6">
+    <row r="49" spans="1:6">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>0.0359939546035584</v>
       </c>
     </row>
-    <row r="50" hidden="1" spans="1:6">
+    <row r="50" spans="1:6">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>0.0595897360454125</v>
       </c>
     </row>
-    <row r="51" hidden="1" spans="1:6">
+    <row r="51" spans="1:6">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>-23.0066208535679</v>
       </c>
     </row>
-    <row r="62" hidden="1" spans="1:6">
+    <row r="62" spans="1:6">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -2356,7 +2356,7 @@
         <v>4.99858276149686</v>
       </c>
     </row>
-    <row r="63" hidden="1" spans="1:6">
+    <row r="63" spans="1:6">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>0.17783356719489</v>
       </c>
     </row>
-    <row r="64" hidden="1" spans="1:6">
+    <row r="64" spans="1:6">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>-0.00753446974484376</v>
       </c>
     </row>
-    <row r="65" hidden="1" spans="1:6">
+    <row r="65" spans="1:6">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>-0.00807383700181557</v>
       </c>
     </row>
-    <row r="66" hidden="1" spans="1:6">
+    <row r="66" spans="1:6">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>-0.00577723428992417</v>
       </c>
     </row>
-    <row r="67" hidden="1" spans="1:6">
+    <row r="67" spans="1:6">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -2461,7 +2461,7 @@
         <v>-0.00678179048408246</v>
       </c>
     </row>
-    <row r="68" hidden="1" spans="1:6">
+    <row r="68" spans="1:6">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>-0.00653080799775989</v>
       </c>
     </row>
-    <row r="69" hidden="1" spans="1:6">
+    <row r="69" spans="1:6">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>-0.0117036722360931</v>
       </c>
     </row>
-    <row r="70" hidden="1" spans="1:6">
+    <row r="70" spans="1:6">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>-0.035669499348239</v>
       </c>
     </row>
-    <row r="71" hidden="1" spans="1:6">
+    <row r="71" spans="1:6">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>-24.4593642906752</v>
       </c>
     </row>
-    <row r="72" hidden="1" spans="1:6">
+    <row r="72" spans="1:6">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>4.8249186876044</v>
       </c>
     </row>
-    <row r="73" hidden="1" spans="1:6">
+    <row r="73" spans="1:6">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>0.195933659480949</v>
       </c>
     </row>
-    <row r="74" hidden="1" spans="1:6">
+    <row r="74" spans="1:6">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>0.0263893636818245</v>
       </c>
     </row>
-    <row r="75" hidden="1" spans="1:6">
+    <row r="75" spans="1:6">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>-0.00685362358435083</v>
       </c>
     </row>
-    <row r="76" hidden="1" spans="1:6">
+    <row r="76" spans="1:6">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>0.0126780827520793</v>
       </c>
     </row>
-    <row r="77" hidden="1" spans="1:6">
+    <row r="77" spans="1:6">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>0.00376212380698463</v>
       </c>
     </row>
-    <row r="78" hidden="1" spans="1:6">
+    <row r="78" spans="1:6">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>0.193420746562755</v>
       </c>
     </row>
-    <row r="79" hidden="1" spans="1:6">
+    <row r="79" spans="1:6">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>-0.175631668185601</v>
       </c>
     </row>
-    <row r="80" hidden="1" spans="1:6">
+    <row r="80" spans="1:6">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>0.0102857113667888</v>
       </c>
     </row>
-    <row r="81" hidden="1" spans="1:6">
+    <row r="81" spans="1:6">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>-21.4619827307258</v>
       </c>
     </row>
-    <row r="82" hidden="1" spans="1:6">
+    <row r="82" spans="1:6">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>4.61295026078612</v>
       </c>
     </row>
-    <row r="83" hidden="1" spans="1:6">
+    <row r="83" spans="1:6">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>0.188529136671574</v>
       </c>
     </row>
-    <row r="84" hidden="1" spans="1:6">
+    <row r="84" spans="1:6">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>0.00878502163205053</v>
       </c>
     </row>
-    <row r="85" hidden="1" spans="1:6">
+    <row r="85" spans="1:6">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>-0.00116094710071867</v>
       </c>
     </row>
-    <row r="86" hidden="1" spans="1:6">
+    <row r="86" spans="1:6">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>-0.00224481534312</v>
       </c>
     </row>
-    <row r="87" hidden="1" spans="1:6">
+    <row r="87" spans="1:6">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>0.0138953844986994</v>
       </c>
     </row>
-    <row r="88" hidden="1" spans="1:6">
+    <row r="88" spans="1:6">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>-8.55453029567059e-5</v>
       </c>
     </row>
-    <row r="89" hidden="1" spans="1:6">
+    <row r="89" spans="1:6">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>0.0145185786114959</v>
       </c>
     </row>
-    <row r="90" hidden="1" spans="1:6">
+    <row r="90" spans="1:6">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -2944,7 +2944,7 @@
         <v>0.00943074883168071</v>
       </c>
     </row>
-    <row r="91" hidden="1" spans="1:6">
+    <row r="91" spans="1:6">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>-18.5566599652881</v>
       </c>
     </row>
-    <row r="92" hidden="1" spans="1:6">
+    <row r="92" spans="1:6">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>4.44418184555205</v>
       </c>
     </row>
-    <row r="93" hidden="1" spans="1:6">
+    <row r="93" spans="1:6">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>0.167705922941215</v>
       </c>
     </row>
-    <row r="94" hidden="1" spans="1:6">
+    <row r="94" spans="1:6">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>-0.0128798197397818</v>
       </c>
     </row>
-    <row r="95" hidden="1" spans="1:6">
+    <row r="95" spans="1:6">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>-0.00937207897915582</v>
       </c>
     </row>
-    <row r="96" hidden="1" spans="1:6">
+    <row r="96" spans="1:6">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>-0.00541648677295161</v>
       </c>
     </row>
-    <row r="97" hidden="1" spans="1:6">
+    <row r="97" spans="1:6">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>-0.0129884959830947</v>
       </c>
     </row>
-    <row r="98" hidden="1" spans="1:6">
+    <row r="98" spans="1:6">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>0.0153857252154561</v>
       </c>
     </row>
-    <row r="99" hidden="1" spans="1:6">
+    <row r="99" spans="1:6">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>0.00161352985633514</v>
       </c>
     </row>
-    <row r="100" hidden="1" spans="1:6">
+    <row r="100" spans="1:6">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>0.0133733783298457</v>
       </c>
     </row>
-    <row r="101" hidden="1" spans="1:6">
+    <row r="101" spans="1:6">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>-20.0693959996382</v>
       </c>
     </row>
-    <row r="112" hidden="1" spans="1:6">
+    <row r="112" spans="1:6">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>14.0197801428092</v>
       </c>
     </row>
-    <row r="113" hidden="1" spans="1:6">
+    <row r="113" spans="1:6">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -3427,7 +3427,7 @@
         <v>1.52329762367003</v>
       </c>
     </row>
-    <row r="114" hidden="1" spans="1:6">
+    <row r="114" spans="1:6">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>0.17926484509683</v>
       </c>
     </row>
-    <row r="115" hidden="1" spans="1:6">
+    <row r="115" spans="1:6">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>0.0140501081498614</v>
       </c>
     </row>
-    <row r="116" hidden="1" spans="1:6">
+    <row r="116" spans="1:6">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>-0.00982369630737247</v>
       </c>
     </row>
-    <row r="117" hidden="1" spans="1:6">
+    <row r="117" spans="1:6">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>-0.0174981803754247</v>
       </c>
     </row>
-    <row r="118" hidden="1" spans="1:6">
+    <row r="118" spans="1:6">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -3532,7 +3532,7 @@
         <v>-0.0166104756613261</v>
       </c>
     </row>
-    <row r="119" hidden="1" spans="1:6">
+    <row r="119" spans="1:6">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>-0.0209479956385611</v>
       </c>
     </row>
-    <row r="120" hidden="1" spans="1:6">
+    <row r="120" spans="1:6">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>-0.0647656569919735</v>
       </c>
     </row>
-    <row r="121" hidden="1" spans="1:6">
+    <row r="121" spans="1:6">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>-29.5940440124842</v>
       </c>
     </row>
-    <row r="122" hidden="1" spans="1:6">
+    <row r="122" spans="1:6">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>13.4606682559828</v>
       </c>
     </row>
-    <row r="123" hidden="1" spans="1:6">
+    <row r="123" spans="1:6">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>1.49868711831069</v>
       </c>
     </row>
-    <row r="124" hidden="1" spans="1:6">
+    <row r="124" spans="1:6">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>0.180842648212274</v>
       </c>
     </row>
-    <row r="125" hidden="1" spans="1:6">
+    <row r="125" spans="1:6">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>0.0217525368902999</v>
       </c>
     </row>
-    <row r="126" hidden="1" spans="1:6">
+    <row r="126" spans="1:6">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>0.788007509939684</v>
       </c>
     </row>
-    <row r="127" hidden="1" spans="1:6">
+    <row r="127" spans="1:6">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>-0.779892993065815</v>
       </c>
     </row>
-    <row r="128" hidden="1" spans="1:6">
+    <row r="128" spans="1:6">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>-0.0045348960290689</v>
       </c>
     </row>
-    <row r="129" hidden="1" spans="1:6">
+    <row r="129" spans="1:6">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>-0.00176616549595385</v>
       </c>
     </row>
-    <row r="130" hidden="1" spans="1:6">
+    <row r="130" spans="1:6">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>-0.00288042610955796</v>
       </c>
     </row>
-    <row r="131" hidden="1" spans="1:6">
+    <row r="131" spans="1:6">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>-27.1521822239501</v>
       </c>
     </row>
-    <row r="132" hidden="1" spans="1:6">
+    <row r="132" spans="1:6">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>12.8992122123852</v>
       </c>
     </row>
-    <row r="133" hidden="1" spans="1:6">
+    <row r="133" spans="1:6">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>1.43205234163753</v>
       </c>
     </row>
-    <row r="134" hidden="1" spans="1:6">
+    <row r="134" spans="1:6">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>0.18505497082089</v>
       </c>
     </row>
-    <row r="135" hidden="1" spans="1:6">
+    <row r="135" spans="1:6">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>0.0298289321831367</v>
       </c>
     </row>
-    <row r="136" hidden="1" spans="1:6">
+    <row r="136" spans="1:6">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -3910,7 +3910,7 @@
         <v>0.00790373803014765</v>
       </c>
     </row>
-    <row r="137" hidden="1" spans="1:6">
+    <row r="137" spans="1:6">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>0.00353433112969965</v>
       </c>
     </row>
-    <row r="138" hidden="1" spans="1:6">
+    <row r="138" spans="1:6">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>0.00941439401760849</v>
       </c>
     </row>
-    <row r="139" hidden="1" spans="1:6">
+    <row r="139" spans="1:6">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -3973,7 +3973,7 @@
         <v>0.00870322571028239</v>
       </c>
     </row>
-    <row r="140" hidden="1" spans="1:6">
+    <row r="140" spans="1:6">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>0.00756031695235038</v>
       </c>
     </row>
-    <row r="141" hidden="1" spans="1:6">
+    <row r="141" spans="1:6">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>-24.7680292298858</v>
       </c>
     </row>
-    <row r="142" hidden="1" spans="1:6">
+    <row r="142" spans="1:6">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v>12.3722482812092</v>
       </c>
     </row>
-    <row r="143" hidden="1" spans="1:6">
+    <row r="143" spans="1:6">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>1.39862797944209</v>
       </c>
     </row>
-    <row r="144" hidden="1" spans="1:6">
+    <row r="144" spans="1:6">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -4078,7 +4078,7 @@
         <v>0.154220602199572</v>
       </c>
     </row>
-    <row r="145" hidden="1" spans="1:6">
+    <row r="145" spans="1:6">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -4099,7 +4099,7 @@
         <v>0.0243564124198437</v>
       </c>
     </row>
-    <row r="146" hidden="1" spans="1:6">
+    <row r="146" spans="1:6">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>0.00582636536431247</v>
       </c>
     </row>
-    <row r="147" hidden="1" spans="1:6">
+    <row r="147" spans="1:6">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -4141,7 +4141,7 @@
         <v>0.00470947010819802</v>
       </c>
     </row>
-    <row r="148" hidden="1" spans="1:6">
+    <row r="148" spans="1:6">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>0.876162448486952</v>
       </c>
     </row>
-    <row r="149" hidden="1" spans="1:6">
+    <row r="149" spans="1:6">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>-0.858007206940252</v>
       </c>
     </row>
-    <row r="150" hidden="1" spans="1:6">
+    <row r="150" spans="1:6">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -4204,7 +4204,7 @@
         <v>0.00878767027979152</v>
       </c>
     </row>
-    <row r="151" hidden="1" spans="1:6">
+    <row r="151" spans="1:6">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -4435,7 +4435,7 @@
         <v>-16.8961600453142</v>
       </c>
     </row>
-    <row r="162" hidden="1" spans="1:6">
+    <row r="162" spans="1:6">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>21.9952128321227</v>
       </c>
     </row>
-    <row r="163" hidden="1" spans="1:6">
+    <row r="163" spans="1:6">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>3.72353190241925</v>
       </c>
     </row>
-    <row r="164" hidden="1" spans="1:6">
+    <row r="164" spans="1:6">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>0.74199133534576</v>
       </c>
     </row>
-    <row r="165" hidden="1" spans="1:6">
+    <row r="165" spans="1:6">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>0.148784253698777</v>
       </c>
     </row>
-    <row r="166" hidden="1" spans="1:6">
+    <row r="166" spans="1:6">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -4540,7 +4540,7 @@
         <v>0.0227757882474413</v>
       </c>
     </row>
-    <row r="167" hidden="1" spans="1:6">
+    <row r="167" spans="1:6">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>0.00885889426675705</v>
       </c>
     </row>
-    <row r="168" hidden="1" spans="1:6">
+    <row r="168" spans="1:6">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>-0.0294296385984148</v>
       </c>
     </row>
-    <row r="169" hidden="1" spans="1:6">
+    <row r="169" spans="1:6">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -4603,7 +4603,7 @@
         <v>-0.041917760780353</v>
       </c>
     </row>
-    <row r="170" hidden="1" spans="1:6">
+    <row r="170" spans="1:6">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -4624,7 +4624,7 @@
         <v>-0.0757668725522869</v>
       </c>
     </row>
-    <row r="171" hidden="1" spans="1:6">
+    <row r="171" spans="1:6">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>-34.527492211384</v>
       </c>
     </row>
-    <row r="172" hidden="1" spans="1:6">
+    <row r="172" spans="1:6">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -4666,7 +4666,7 @@
         <v>21.2294458743811</v>
       </c>
     </row>
-    <row r="173" hidden="1" spans="1:6">
+    <row r="173" spans="1:6">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -4687,7 +4687,7 @@
         <v>3.66144023223179</v>
       </c>
     </row>
-    <row r="174" hidden="1" spans="1:6">
+    <row r="174" spans="1:6">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -4708,7 +4708,7 @@
         <v>0.747348890054977</v>
       </c>
     </row>
-    <row r="175" hidden="1" spans="1:6">
+    <row r="175" spans="1:6">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -4729,7 +4729,7 @@
         <v>0.157585100291675</v>
       </c>
     </row>
-    <row r="176" hidden="1" spans="1:6">
+    <row r="176" spans="1:6">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -4750,7 +4750,7 @@
         <v>0.0280519241902035</v>
       </c>
     </row>
-    <row r="177" hidden="1" spans="1:6">
+    <row r="177" spans="1:6">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v>-0.00168110744789211</v>
       </c>
     </row>
-    <row r="178" hidden="1" spans="1:6">
+    <row r="178" spans="1:6">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -4792,7 +4792,7 @@
         <v>-0.0090589104588901</v>
       </c>
     </row>
-    <row r="179" hidden="1" spans="1:6">
+    <row r="179" spans="1:6">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>-0.0104545446177372</v>
       </c>
     </row>
-    <row r="180" hidden="1" spans="1:6">
+    <row r="180" spans="1:6">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -4834,7 +4834,7 @@
         <v>-0.0143231906058695</v>
       </c>
     </row>
-    <row r="181" hidden="1" spans="1:6">
+    <row r="181" spans="1:6">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>-32.6506020777731</v>
       </c>
     </row>
-    <row r="182" hidden="1" spans="1:6">
+    <row r="182" spans="1:6">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -4876,7 +4876,7 @@
         <v>20.0450736950982</v>
       </c>
     </row>
-    <row r="183" hidden="1" spans="1:6">
+    <row r="183" spans="1:6">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>3.67305719771751</v>
       </c>
     </row>
-    <row r="184" hidden="1" spans="1:6">
+    <row r="184" spans="1:6">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -4918,7 +4918,7 @@
         <v>0.746163865828716</v>
       </c>
     </row>
-    <row r="185" hidden="1" spans="1:6">
+    <row r="185" spans="1:6">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -4939,7 +4939,7 @@
         <v>0.162105520930487</v>
       </c>
     </row>
-    <row r="186" hidden="1" spans="1:6">
+    <row r="186" spans="1:6">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -4960,7 +4960,7 @@
         <v>0.0375916692448775</v>
       </c>
     </row>
-    <row r="187" hidden="1" spans="1:6">
+    <row r="187" spans="1:6">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -4981,7 +4981,7 @@
         <v>0.0116332605632897</v>
       </c>
     </row>
-    <row r="188" hidden="1" spans="1:6">
+    <row r="188" spans="1:6">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -5002,7 +5002,7 @@
         <v>0.00390763200730085</v>
       </c>
     </row>
-    <row r="189" hidden="1" spans="1:6">
+    <row r="189" spans="1:6">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>0.00351342895043794</v>
       </c>
     </row>
-    <row r="190" hidden="1" spans="1:6">
+    <row r="190" spans="1:6">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -5044,7 +5044,7 @@
         <v>0.00385286533711969</v>
       </c>
     </row>
-    <row r="191" hidden="1" spans="1:6">
+    <row r="191" spans="1:6">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -5065,7 +5065,7 @@
         <v>-30.4669330876828</v>
       </c>
     </row>
-    <row r="192" hidden="1" spans="1:6">
+    <row r="192" spans="1:6">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -5086,7 +5086,7 @@
         <v>19.1710111861084</v>
       </c>
     </row>
-    <row r="193" hidden="1" spans="1:6">
+    <row r="193" spans="1:6">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>3.43786765049748</v>
       </c>
     </row>
-    <row r="194" hidden="1" spans="1:6">
+    <row r="194" spans="1:6">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>0.722632052932457</v>
       </c>
     </row>
-    <row r="195" hidden="1" spans="1:6">
+    <row r="195" spans="1:6">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -5149,7 +5149,7 @@
         <v>0.155227234350458</v>
       </c>
     </row>
-    <row r="196" hidden="1" spans="1:6">
+    <row r="196" spans="1:6">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>0.0375256698373209</v>
       </c>
     </row>
-    <row r="197" hidden="1" spans="1:6">
+    <row r="197" spans="1:6">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v>0.0101569302602953</v>
       </c>
     </row>
-    <row r="198" hidden="1" spans="1:6">
+    <row r="198" spans="1:6">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -5212,7 +5212,7 @@
         <v>0.0066262020919269</v>
       </c>
     </row>
-    <row r="199" hidden="1" spans="1:6">
+    <row r="199" spans="1:6">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -5233,7 +5233,7 @@
         <v>0.00426615787696348</v>
       </c>
     </row>
-    <row r="200" hidden="1" spans="1:6">
+    <row r="200" spans="1:6">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -5254,7 +5254,7 @@
         <v>0.00409630073232445</v>
       </c>
     </row>
-    <row r="201" hidden="1" spans="1:6">
+    <row r="201" spans="1:6">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -5485,7 +5485,7 @@
         <v>-13.24685493308</v>
       </c>
     </row>
-    <row r="212" hidden="1" spans="1:6">
+    <row r="212" spans="1:6">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -5506,7 +5506,7 @@
         <v>28.0172123834502</v>
       </c>
     </row>
-    <row r="213" hidden="1" spans="1:6">
+    <row r="213" spans="1:6">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>5.41423063499169</v>
       </c>
     </row>
-    <row r="214" hidden="1" spans="1:6">
+    <row r="214" spans="1:6">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -5548,7 +5548,7 @@
         <v>1.01769675826461</v>
       </c>
     </row>
-    <row r="215" hidden="1" spans="1:6">
+    <row r="215" spans="1:6">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>0.0146521706705608</v>
       </c>
     </row>
-    <row r="216" hidden="1" spans="1:6">
+    <row r="216" spans="1:6">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -5590,7 +5590,7 @@
         <v>-0.0870181490492233</v>
       </c>
     </row>
-    <row r="217" hidden="1" spans="1:6">
+    <row r="217" spans="1:6">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>-0.145830658701739</v>
       </c>
     </row>
-    <row r="218" hidden="1" spans="1:6">
+    <row r="218" spans="1:6">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -5632,7 +5632,7 @@
         <v>-0.0864810336568314</v>
       </c>
     </row>
-    <row r="219" hidden="1" spans="1:6">
+    <row r="219" spans="1:6">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -5653,7 +5653,7 @@
         <v>-0.0982890822382919</v>
       </c>
     </row>
-    <row r="220" hidden="1" spans="1:6">
+    <row r="220" spans="1:6">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -5674,7 +5674,7 @@
         <v>-0.0641506885767095</v>
       </c>
     </row>
-    <row r="221" hidden="1" spans="1:6">
+    <row r="221" spans="1:6">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -5695,7 +5695,7 @@
         <v>-37.0955495438599</v>
       </c>
     </row>
-    <row r="222" hidden="1" spans="1:6">
+    <row r="222" spans="1:6">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -5716,7 +5716,7 @@
         <v>26.7797229806021</v>
       </c>
     </row>
-    <row r="223" hidden="1" spans="1:6">
+    <row r="223" spans="1:6">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -5737,7 +5737,7 @@
         <v>6.02325979609453</v>
       </c>
     </row>
-    <row r="224" hidden="1" spans="1:6">
+    <row r="224" spans="1:6">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>1.61506327522275</v>
       </c>
     </row>
-    <row r="225" hidden="1" spans="1:6">
+    <row r="225" spans="1:6">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -5779,7 +5779,7 @@
         <v>0.438233212381789</v>
       </c>
     </row>
-    <row r="226" hidden="1" spans="1:6">
+    <row r="226" spans="1:6">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -5800,7 +5800,7 @@
         <v>0.130040669036994</v>
       </c>
     </row>
-    <row r="227" hidden="1" spans="1:6">
+    <row r="227" spans="1:6">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -5821,7 +5821,7 @@
         <v>0.0204564053939265</v>
       </c>
     </row>
-    <row r="228" hidden="1" spans="1:6">
+    <row r="228" spans="1:6">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -5842,7 +5842,7 @@
         <v>-0.00684544652051495</v>
       </c>
     </row>
-    <row r="229" hidden="1" spans="1:6">
+    <row r="229" spans="1:6">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -5863,7 +5863,7 @@
         <v>-0.0166537444532429</v>
       </c>
     </row>
-    <row r="230" hidden="1" spans="1:6">
+    <row r="230" spans="1:6">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -5884,7 +5884,7 @@
         <v>-0.0185127692513307</v>
       </c>
     </row>
-    <row r="231" hidden="1" spans="1:6">
+    <row r="231" spans="1:6">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>-36.8709128112832</v>
       </c>
     </row>
-    <row r="232" hidden="1" spans="1:6">
+    <row r="232" spans="1:6">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -5926,7 +5926,7 @@
         <v>25.1126222741462</v>
       </c>
     </row>
-    <row r="233" hidden="1" spans="1:6">
+    <row r="233" spans="1:6">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -5947,7 +5947,7 @@
         <v>5.85572110712694</v>
       </c>
     </row>
-    <row r="234" hidden="1" spans="1:6">
+    <row r="234" spans="1:6">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -5968,7 +5968,7 @@
         <v>1.59364596694994</v>
       </c>
     </row>
-    <row r="235" hidden="1" spans="1:6">
+    <row r="235" spans="1:6">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -5989,7 +5989,7 @@
         <v>0.465035130564581</v>
       </c>
     </row>
-    <row r="236" hidden="1" spans="1:6">
+    <row r="236" spans="1:6">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -6010,7 +6010,7 @@
         <v>0.133620997181481</v>
       </c>
     </row>
-    <row r="237" hidden="1" spans="1:6">
+    <row r="237" spans="1:6">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>0.0488483514511001</v>
       </c>
     </row>
-    <row r="238" hidden="1" spans="1:6">
+    <row r="238" spans="1:6">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -6052,7 +6052,7 @@
         <v>0.00557100899527368</v>
       </c>
     </row>
-    <row r="239" hidden="1" spans="1:6">
+    <row r="239" spans="1:6">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>0.00626775961440823</v>
       </c>
     </row>
-    <row r="240" hidden="1" spans="1:6">
+    <row r="240" spans="1:6">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -6094,7 +6094,7 @@
         <v>-0.00192685226245409</v>
       </c>
     </row>
-    <row r="241" hidden="1" spans="1:6">
+    <row r="241" spans="1:6">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -6115,7 +6115,7 @@
         <v>-34.6986839215889</v>
       </c>
     </row>
-    <row r="242" hidden="1" spans="1:6">
+    <row r="242" spans="1:6">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -6136,7 +6136,7 @@
         <v>23.5457367154155</v>
       </c>
     </row>
-    <row r="243" hidden="1" spans="1:6">
+    <row r="243" spans="1:6">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -6157,7 +6157,7 @@
         <v>5.55594868612374</v>
       </c>
     </row>
-    <row r="244" hidden="1" spans="1:6">
+    <row r="244" spans="1:6">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -6178,7 +6178,7 @@
         <v>1.55545503218744</v>
       </c>
     </row>
-    <row r="245" hidden="1" spans="1:6">
+    <row r="245" spans="1:6">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -6199,7 +6199,7 @@
         <v>0.449117853236893</v>
       </c>
     </row>
-    <row r="246" hidden="1" spans="1:6">
+    <row r="246" spans="1:6">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -6220,7 +6220,7 @@
         <v>0.146809853667871</v>
       </c>
     </row>
-    <row r="247" hidden="1" spans="1:6">
+    <row r="247" spans="1:6">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>0.0232281837506499</v>
       </c>
     </row>
-    <row r="248" hidden="1" spans="1:6">
+    <row r="248" spans="1:6">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -6262,7 +6262,7 @@
         <v>0.0273824716469212</v>
       </c>
     </row>
-    <row r="249" hidden="1" spans="1:6">
+    <row r="249" spans="1:6">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>0.0204701719654961</v>
       </c>
     </row>
-    <row r="250" hidden="1" spans="1:6">
+    <row r="250" spans="1:6">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -6304,7 +6304,7 @@
         <v>0.0120099092910648</v>
       </c>
     </row>
-    <row r="251" hidden="1" spans="1:6">
+    <row r="251" spans="1:6">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -6535,7 +6535,7 @@
         <v>-11.7207791704142</v>
       </c>
     </row>
-    <row r="262" hidden="1" spans="1:6">
+    <row r="262" spans="1:6">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -6556,7 +6556,7 @@
         <v>31.1271634869898</v>
       </c>
     </row>
-    <row r="263" hidden="1" spans="1:6">
+    <row r="263" spans="1:6">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -6577,7 +6577,7 @@
         <v>3.89241699764093</v>
       </c>
     </row>
-    <row r="264" hidden="1" spans="1:6">
+    <row r="264" spans="1:6">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -6598,7 +6598,7 @@
         <v>1.25816522424435</v>
       </c>
     </row>
-    <row r="265" hidden="1" spans="1:6">
+    <row r="265" spans="1:6">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -6619,7 +6619,7 @@
         <v>-0.105247446407775</v>
       </c>
     </row>
-    <row r="266" hidden="1" spans="1:6">
+    <row r="266" spans="1:6">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -6640,7 +6640,7 @@
         <v>-0.180776422994764</v>
       </c>
     </row>
-    <row r="267" hidden="1" spans="1:6">
+    <row r="267" spans="1:6">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -6661,7 +6661,7 @@
         <v>-0.192635019576923</v>
       </c>
     </row>
-    <row r="268" hidden="1" spans="1:6">
+    <row r="268" spans="1:6">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -6682,7 +6682,7 @@
         <v>-0.703471638244465</v>
       </c>
     </row>
-    <row r="269" hidden="1" spans="1:6">
+    <row r="269" spans="1:6">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -6703,7 +6703,7 @@
         <v>0.373210361230554</v>
       </c>
     </row>
-    <row r="270" hidden="1" spans="1:6">
+    <row r="270" spans="1:6">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -6724,7 +6724,7 @@
         <v>-0.144328561933726</v>
       </c>
     </row>
-    <row r="271" hidden="1" spans="1:6">
+    <row r="271" spans="1:6">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -6745,7 +6745,7 @@
         <v>-36.3788367320419</v>
       </c>
     </row>
-    <row r="272" hidden="1" spans="1:6">
+    <row r="272" spans="1:6">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -6766,7 +6766,7 @@
         <v>29.6039821967118</v>
       </c>
     </row>
-    <row r="273" hidden="1" spans="1:6">
+    <row r="273" spans="1:6">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -6787,7 +6787,7 @@
         <v>9.43747864639356</v>
       </c>
     </row>
-    <row r="274" hidden="1" spans="1:6">
+    <row r="274" spans="1:6">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -6808,7 +6808,7 @@
         <v>2.48163755039075</v>
       </c>
     </row>
-    <row r="275" hidden="1" spans="1:6">
+    <row r="275" spans="1:6">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -6829,7 +6829,7 @@
         <v>0.797830241041282</v>
       </c>
     </row>
-    <row r="276" hidden="1" spans="1:6">
+    <row r="276" spans="1:6">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -6850,7 +6850,7 @@
         <v>0.256971977550273</v>
       </c>
     </row>
-    <row r="277" hidden="1" spans="1:6">
+    <row r="277" spans="1:6">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -6871,7 +6871,7 @@
         <v>0.0690071702010723</v>
       </c>
     </row>
-    <row r="278" hidden="1" spans="1:6">
+    <row r="278" spans="1:6">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -6892,7 +6892,7 @@
         <v>0.0164994932724697</v>
       </c>
     </row>
-    <row r="279" hidden="1" spans="1:6">
+    <row r="279" spans="1:6">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -6913,7 +6913,7 @@
         <v>-0.696144640737295</v>
       </c>
     </row>
-    <row r="280" hidden="1" spans="1:6">
+    <row r="280" spans="1:6">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -6934,7 +6934,7 @@
         <v>0.663553607036857</v>
       </c>
     </row>
-    <row r="281" hidden="1" spans="1:6">
+    <row r="281" spans="1:6">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -6955,7 +6955,7 @@
         <v>-41.6605930922708</v>
       </c>
     </row>
-    <row r="282" hidden="1" spans="1:6">
+    <row r="282" spans="1:6">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -6976,7 +6976,7 @@
         <v>30.6737053232511</v>
       </c>
     </row>
-    <row r="283" hidden="1" spans="1:6">
+    <row r="283" spans="1:6">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -6997,7 +6997,7 @@
         <v>8.18123191412456</v>
       </c>
     </row>
-    <row r="284" hidden="1" spans="1:6">
+    <row r="284" spans="1:6">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -7018,7 +7018,7 @@
         <v>2.5895968002288</v>
       </c>
     </row>
-    <row r="285" hidden="1" spans="1:6">
+    <row r="285" spans="1:6">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -7039,7 +7039,7 @@
         <v>0.885906348542022</v>
       </c>
     </row>
-    <row r="286" hidden="1" spans="1:6">
+    <row r="286" spans="1:6">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -7060,7 +7060,7 @@
         <v>0.304783127298908</v>
       </c>
     </row>
-    <row r="287" hidden="1" spans="1:6">
+    <row r="287" spans="1:6">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>0.104605559221774</v>
       </c>
     </row>
-    <row r="288" hidden="1" spans="1:6">
+    <row r="288" spans="1:6">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -7102,7 +7102,7 @@
         <v>0.0299072259974211</v>
       </c>
     </row>
-    <row r="289" hidden="1" spans="1:6">
+    <row r="289" spans="1:6">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -7123,7 +7123,7 @@
         <v>0.0023222420990953</v>
       </c>
     </row>
-    <row r="290" hidden="1" spans="1:6">
+    <row r="290" spans="1:6">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -7144,7 +7144,7 @@
         <v>0.00143200102833221</v>
       </c>
     </row>
-    <row r="291" hidden="1" spans="1:6">
+    <row r="291" spans="1:6">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -7165,7 +7165,7 @@
         <v>-39.4068406288354</v>
       </c>
     </row>
-    <row r="292" hidden="1" spans="1:6">
+    <row r="292" spans="1:6">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -7186,7 +7186,7 @@
         <v>29.0343426647737</v>
       </c>
     </row>
-    <row r="293" hidden="1" spans="1:6">
+    <row r="293" spans="1:6">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -7207,7 +7207,7 @@
         <v>9.07217304416792</v>
       </c>
     </row>
-    <row r="294" hidden="1" spans="1:6">
+    <row r="294" spans="1:6">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -7228,7 +7228,7 @@
         <v>2.42218292433578</v>
       </c>
     </row>
-    <row r="295" hidden="1" spans="1:6">
+    <row r="295" spans="1:6">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>-0.150649273802054</v>
       </c>
     </row>
-    <row r="296" hidden="1" spans="1:6">
+    <row r="296" spans="1:6">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -7270,7 +7270,7 @@
         <v>1.28505579283884</v>
       </c>
     </row>
-    <row r="297" hidden="1" spans="1:6">
+    <row r="297" spans="1:6">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -7291,7 +7291,7 @@
         <v>0.107028925186624</v>
       </c>
     </row>
-    <row r="298" hidden="1" spans="1:6">
+    <row r="298" spans="1:6">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -7312,7 +7312,7 @@
         <v>0.0410757374384335</v>
       </c>
     </row>
-    <row r="299" hidden="1" spans="1:6">
+    <row r="299" spans="1:6">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -7333,7 +7333,7 @@
         <v>0.0190180221104816</v>
       </c>
     </row>
-    <row r="300" hidden="1" spans="1:6">
+    <row r="300" spans="1:6">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -7354,7 +7354,7 @@
         <v>0.0134680543241873</v>
       </c>
     </row>
-    <row r="301" hidden="1" spans="1:6">
+    <row r="301" spans="1:6">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -7585,7 +7585,7 @@
         <v>-10.7303601549386</v>
       </c>
     </row>
-    <row r="312" hidden="1" spans="1:6">
+    <row r="312" spans="1:6">
       <c r="A312" s="1">
         <v>311</v>
       </c>
@@ -7606,7 +7606,7 @@
         <v>35.4422327964892</v>
       </c>
     </row>
-    <row r="313" hidden="1" spans="1:6">
+    <row r="313" spans="1:6">
       <c r="A313" s="1">
         <v>312</v>
       </c>
@@ -7627,7 +7627,7 @@
         <v>4.80026271146249</v>
       </c>
     </row>
-    <row r="314" hidden="1" spans="1:6">
+    <row r="314" spans="1:6">
       <c r="A314" s="1">
         <v>313</v>
       </c>
@@ -7648,7 +7648,7 @@
         <v>0.890040824344189</v>
       </c>
     </row>
-    <row r="315" hidden="1" spans="1:6">
+    <row r="315" spans="1:6">
       <c r="A315" s="1">
         <v>314</v>
       </c>
@@ -7669,7 +7669,7 @@
         <v>0.116410850874884</v>
       </c>
     </row>
-    <row r="316" hidden="1" spans="1:6">
+    <row r="316" spans="1:6">
       <c r="A316" s="1">
         <v>315</v>
       </c>
@@ -7690,7 +7690,7 @@
         <v>-0.0644170247797283</v>
       </c>
     </row>
-    <row r="317" hidden="1" spans="1:6">
+    <row r="317" spans="1:6">
       <c r="A317" s="1">
         <v>316</v>
       </c>
@@ -7711,7 +7711,7 @@
         <v>-0.121507418099383</v>
       </c>
     </row>
-    <row r="318" hidden="1" spans="1:6">
+    <row r="318" spans="1:6">
       <c r="A318" s="1">
         <v>317</v>
       </c>
@@ -7732,7 +7732,7 @@
         <v>-0.14021463243707</v>
       </c>
     </row>
-    <row r="319" hidden="1" spans="1:6">
+    <row r="319" spans="1:6">
       <c r="A319" s="1">
         <v>318</v>
       </c>
@@ -7753,7 +7753,7 @@
         <v>-0.141797716886921</v>
       </c>
     </row>
-    <row r="320" hidden="1" spans="1:6">
+    <row r="320" spans="1:6">
       <c r="A320" s="1">
         <v>319</v>
       </c>
@@ -7774,7 +7774,7 @@
         <v>-0.135738987698735</v>
       </c>
     </row>
-    <row r="321" hidden="1" spans="1:6">
+    <row r="321" spans="1:6">
       <c r="A321" s="1">
         <v>320</v>
       </c>
@@ -7795,7 +7795,7 @@
         <v>-38.2090766070881</v>
       </c>
     </row>
-    <row r="322" hidden="1" spans="1:6">
+    <row r="322" spans="1:6">
       <c r="A322" s="1">
         <v>321</v>
       </c>
@@ -7816,7 +7816,7 @@
         <v>37.431410870436</v>
       </c>
     </row>
-    <row r="323" hidden="1" spans="1:6">
+    <row r="323" spans="1:6">
       <c r="A323" s="1">
         <v>322</v>
       </c>
@@ -7837,7 +7837,7 @@
         <v>10.4813451506031</v>
       </c>
     </row>
-    <row r="324" hidden="1" spans="1:6">
+    <row r="324" spans="1:6">
       <c r="A324" s="1">
         <v>323</v>
       </c>
@@ -7858,7 +7858,7 @@
         <v>3.36300750557841</v>
       </c>
     </row>
-    <row r="325" hidden="1" spans="1:6">
+    <row r="325" spans="1:6">
       <c r="A325" s="1">
         <v>324</v>
       </c>
@@ -7879,7 +7879,7 @@
         <v>0.97977893148917</v>
       </c>
     </row>
-    <row r="326" hidden="1" spans="1:6">
+    <row r="326" spans="1:6">
       <c r="A326" s="1">
         <v>325</v>
       </c>
@@ -7900,7 +7900,7 @@
         <v>0.185058868841062</v>
       </c>
     </row>
-    <row r="327" hidden="1" spans="1:6">
+    <row r="327" spans="1:6">
       <c r="A327" s="1">
         <v>326</v>
       </c>
@@ -7921,7 +7921,7 @@
         <v>-0.00847933652750116</v>
       </c>
     </row>
-    <row r="328" hidden="1" spans="1:6">
+    <row r="328" spans="1:6">
       <c r="A328" s="1">
         <v>327</v>
       </c>
@@ -7942,7 +7942,7 @@
         <v>-0.0524891986645121</v>
       </c>
     </row>
-    <row r="329" hidden="1" spans="1:6">
+    <row r="329" spans="1:6">
       <c r="A329" s="1">
         <v>328</v>
       </c>
@@ -7963,7 +7963,7 @@
         <v>-0.06108120492383</v>
       </c>
     </row>
-    <row r="330" hidden="1" spans="1:6">
+    <row r="330" spans="1:6">
       <c r="A330" s="1">
         <v>329</v>
       </c>
@@ -7984,7 +7984,7 @@
         <v>-0.0565904995693114</v>
       </c>
     </row>
-    <row r="331" hidden="1" spans="1:6">
+    <row r="331" spans="1:6">
       <c r="A331" s="1">
         <v>330</v>
       </c>
@@ -8005,7 +8005,7 @@
         <v>-44.2417707205575</v>
       </c>
     </row>
-    <row r="332" hidden="1" spans="1:6">
+    <row r="332" spans="1:6">
       <c r="A332" s="1">
         <v>331</v>
       </c>
@@ -8026,7 +8026,7 @@
         <v>35.9623290273443</v>
       </c>
     </row>
-    <row r="333" hidden="1" spans="1:6">
+    <row r="333" spans="1:6">
       <c r="A333" s="1">
         <v>332</v>
       </c>
@@ -8047,7 +8047,7 @@
         <v>10.5354627773776</v>
       </c>
     </row>
-    <row r="334" hidden="1" spans="1:6">
+    <row r="334" spans="1:6">
       <c r="A334" s="1">
         <v>333</v>
       </c>
@@ -8068,7 +8068,7 @@
         <v>3.79339798436159</v>
       </c>
     </row>
-    <row r="335" hidden="1" spans="1:6">
+    <row r="335" spans="1:6">
       <c r="A335" s="1">
         <v>334</v>
       </c>
@@ -8089,7 +8089,7 @@
         <v>1.4799503169207</v>
       </c>
     </row>
-    <row r="336" hidden="1" spans="1:6">
+    <row r="336" spans="1:6">
       <c r="A336" s="1">
         <v>335</v>
       </c>
@@ -8110,7 +8110,7 @@
         <v>0.589379166330684</v>
       </c>
     </row>
-    <row r="337" hidden="1" spans="1:6">
+    <row r="337" spans="1:6">
       <c r="A337" s="1">
         <v>336</v>
       </c>
@@ -8131,7 +8131,7 @@
         <v>0.230631673290279</v>
       </c>
     </row>
-    <row r="338" hidden="1" spans="1:6">
+    <row r="338" spans="1:6">
       <c r="A338" s="1">
         <v>337</v>
       </c>
@@ -8152,7 +8152,7 @@
         <v>0.0873042666196483</v>
       </c>
     </row>
-    <row r="339" hidden="1" spans="1:6">
+    <row r="339" spans="1:6">
       <c r="A339" s="1">
         <v>338</v>
       </c>
@@ -8173,7 +8173,7 @@
         <v>0.02671269552025</v>
       </c>
     </row>
-    <row r="340" hidden="1" spans="1:6">
+    <row r="340" spans="1:6">
       <c r="A340" s="1">
         <v>339</v>
       </c>
@@ -8194,7 +8194,7 @@
         <v>0.00333424350156903</v>
       </c>
     </row>
-    <row r="341" hidden="1" spans="1:6">
+    <row r="341" spans="1:6">
       <c r="A341" s="1">
         <v>340</v>
       </c>
@@ -8215,7 +8215,7 @@
         <v>-43.8736623775366</v>
       </c>
     </row>
-    <row r="342" hidden="1" spans="1:6">
+    <row r="342" spans="1:6">
       <c r="A342" s="1">
         <v>341</v>
       </c>
@@ -8236,7 +8236,7 @@
         <v>34.0879286784659</v>
       </c>
     </row>
-    <row r="343" hidden="1" spans="1:6">
+    <row r="343" spans="1:6">
       <c r="A343" s="1">
         <v>342</v>
       </c>
@@ -8257,7 +8257,7 @@
         <v>10.1675500341664</v>
       </c>
     </row>
-    <row r="344" hidden="1" spans="1:6">
+    <row r="344" spans="1:6">
       <c r="A344" s="1">
         <v>343</v>
       </c>
@@ -8278,7 +8278,7 @@
         <v>3.71307138061321</v>
       </c>
     </row>
-    <row r="345" hidden="1" spans="1:6">
+    <row r="345" spans="1:6">
       <c r="A345" s="1">
         <v>344</v>
       </c>
@@ -8299,7 +8299,7 @@
         <v>1.45467630010801</v>
       </c>
     </row>
-    <row r="346" hidden="1" spans="1:6">
+    <row r="346" spans="1:6">
       <c r="A346" s="1">
         <v>345</v>
       </c>
@@ -8320,7 +8320,7 @@
         <v>0.591135115215368</v>
       </c>
     </row>
-    <row r="347" hidden="1" spans="1:6">
+    <row r="347" spans="1:6">
       <c r="A347" s="1">
         <v>346</v>
       </c>
@@ -8341,7 +8341,7 @@
         <v>0.242916349481372</v>
       </c>
     </row>
-    <row r="348" hidden="1" spans="1:6">
+    <row r="348" spans="1:6">
       <c r="A348" s="1">
         <v>347</v>
       </c>
@@ -8362,7 +8362,7 @@
         <v>0.101347983649009</v>
       </c>
     </row>
-    <row r="349" hidden="1" spans="1:6">
+    <row r="349" spans="1:6">
       <c r="A349" s="1">
         <v>348</v>
       </c>
@@ -8383,7 +8383,7 @@
         <v>0.0442306749199974</v>
       </c>
     </row>
-    <row r="350" hidden="1" spans="1:6">
+    <row r="350" spans="1:6">
       <c r="A350" s="1">
         <v>349</v>
       </c>
@@ -8404,7 +8404,7 @@
         <v>0.0188105411610738</v>
       </c>
     </row>
-    <row r="351" hidden="1" spans="1:6">
+    <row r="351" spans="1:6">
       <c r="A351" s="1">
         <v>350</v>
       </c>
@@ -8635,7 +8635,7 @@
         <v>-8.07132871967555</v>
       </c>
     </row>
-    <row r="362" hidden="1" spans="1:6">
+    <row r="362" spans="1:6">
       <c r="A362" s="1">
         <v>361</v>
       </c>
@@ -8656,7 +8656,7 @@
         <v>36.9149903788055</v>
       </c>
     </row>
-    <row r="363" hidden="1" spans="1:6">
+    <row r="363" spans="1:6">
       <c r="A363" s="1">
         <v>362</v>
       </c>
@@ -8677,7 +8677,7 @@
         <v>5.5975885361804</v>
       </c>
     </row>
-    <row r="364" hidden="1" spans="1:6">
+    <row r="364" spans="1:6">
       <c r="A364" s="1">
         <v>363</v>
       </c>
@@ -8698,7 +8698,7 @@
         <v>1.2519051716239</v>
       </c>
     </row>
-    <row r="365" hidden="1" spans="1:6">
+    <row r="365" spans="1:6">
       <c r="A365" s="1">
         <v>364</v>
       </c>
@@ -8719,7 +8719,7 @@
         <v>0.279837172760442</v>
       </c>
     </row>
-    <row r="366" hidden="1" spans="1:6">
+    <row r="366" spans="1:6">
       <c r="A366" s="1">
         <v>365</v>
       </c>
@@ -8740,7 +8740,7 @@
         <v>0.0106871557096484</v>
       </c>
     </row>
-    <row r="367" hidden="1" spans="1:6">
+    <row r="367" spans="1:6">
       <c r="A367" s="1">
         <v>366</v>
       </c>
@@ -8761,7 +8761,7 @@
         <v>-0.0841905379102809</v>
       </c>
     </row>
-    <row r="368" hidden="1" spans="1:6">
+    <row r="368" spans="1:6">
       <c r="A368" s="1">
         <v>367</v>
       </c>
@@ -8782,7 +8782,7 @@
         <v>-0.118207059461332</v>
       </c>
     </row>
-    <row r="369" hidden="1" spans="1:6">
+    <row r="369" spans="1:6">
       <c r="A369" s="1">
         <v>368</v>
       </c>
@@ -8803,7 +8803,7 @@
         <v>-0.129948049418609</v>
       </c>
     </row>
-    <row r="370" hidden="1" spans="1:6">
+    <row r="370" spans="1:6">
       <c r="A370" s="1">
         <v>369</v>
       </c>
@@ -8824,7 +8824,7 @@
         <v>-0.12932556272578</v>
       </c>
     </row>
-    <row r="371" hidden="1" spans="1:6">
+    <row r="371" spans="1:6">
       <c r="A371" s="1">
         <v>370</v>
       </c>
@@ -8845,7 +8845,7 @@
         <v>-38.53088379657</v>
       </c>
     </row>
-    <row r="372" hidden="1" spans="1:6">
+    <row r="372" spans="1:6">
       <c r="A372" s="1">
         <v>371</v>
       </c>
@@ -8866,7 +8866,7 @@
         <v>37.8983628678307</v>
       </c>
     </row>
-    <row r="373" hidden="1" spans="1:6">
+    <row r="373" spans="1:6">
       <c r="A373" s="1">
         <v>372</v>
       </c>
@@ -8887,7 +8887,7 @@
         <v>11.8571863017311</v>
       </c>
     </row>
-    <row r="374" hidden="1" spans="1:6">
+    <row r="374" spans="1:6">
       <c r="A374" s="1">
         <v>373</v>
       </c>
@@ -8908,7 +8908,7 @@
         <v>3.5725454641222</v>
       </c>
     </row>
-    <row r="375" hidden="1" spans="1:6">
+    <row r="375" spans="1:6">
       <c r="A375" s="1">
         <v>374</v>
       </c>
@@ -8929,7 +8929,7 @@
         <v>0.776781866664726</v>
       </c>
     </row>
-    <row r="376" hidden="1" spans="1:6">
+    <row r="376" spans="1:6">
       <c r="A376" s="1">
         <v>375</v>
       </c>
@@ -8950,7 +8950,7 @@
         <v>0.183780516280725</v>
       </c>
     </row>
-    <row r="377" hidden="1" spans="1:6">
+    <row r="377" spans="1:6">
       <c r="A377" s="1">
         <v>376</v>
       </c>
@@ -8971,7 +8971,7 @@
         <v>-0.000955568626894022</v>
       </c>
     </row>
-    <row r="378" hidden="1" spans="1:6">
+    <row r="378" spans="1:6">
       <c r="A378" s="1">
         <v>377</v>
       </c>
@@ -8992,7 +8992,7 @@
         <v>-0.0649618063729515</v>
       </c>
     </row>
-    <row r="379" hidden="1" spans="1:6">
+    <row r="379" spans="1:6">
       <c r="A379" s="1">
         <v>378</v>
       </c>
@@ -9013,7 +9013,7 @@
         <v>-0.0770361601228134</v>
       </c>
     </row>
-    <row r="380" hidden="1" spans="1:6">
+    <row r="380" spans="1:6">
       <c r="A380" s="1">
         <v>379</v>
       </c>
@@ -9034,7 +9034,7 @@
         <v>-0.080931822515659</v>
       </c>
     </row>
-    <row r="381" hidden="1" spans="1:6">
+    <row r="381" spans="1:6">
       <c r="A381" s="1">
         <v>380</v>
       </c>
@@ -9055,7 +9055,7 @@
         <v>-44.1610897107394</v>
       </c>
     </row>
-    <row r="382" hidden="1" spans="1:6">
+    <row r="382" spans="1:6">
       <c r="A382" s="1">
         <v>381</v>
       </c>
@@ -9076,7 +9076,7 @@
         <v>35.4282963722625</v>
       </c>
     </row>
-    <row r="383" hidden="1" spans="1:6">
+    <row r="383" spans="1:6">
       <c r="A383" s="1">
         <v>382</v>
       </c>
@@ -9097,7 +9097,7 @@
         <v>12.1096037354776</v>
       </c>
     </row>
-    <row r="384" hidden="1" spans="1:6">
+    <row r="384" spans="1:6">
       <c r="A384" s="1">
         <v>383</v>
       </c>
@@ -9118,7 +9118,7 @@
         <v>4.81530479850307</v>
       </c>
     </row>
-    <row r="385" hidden="1" spans="1:6">
+    <row r="385" spans="1:6">
       <c r="A385" s="1">
         <v>384</v>
       </c>
@@ -9139,7 +9139,7 @@
         <v>2.03892261159486</v>
       </c>
     </row>
-    <row r="386" hidden="1" spans="1:6">
+    <row r="386" spans="1:6">
       <c r="A386" s="1">
         <v>385</v>
       </c>
@@ -9160,7 +9160,7 @@
         <v>0.882687801312109</v>
       </c>
     </row>
-    <row r="387" hidden="1" spans="1:6">
+    <row r="387" spans="1:6">
       <c r="A387" s="1">
         <v>386</v>
       </c>
@@ -9181,7 +9181,7 @@
         <v>0.385049072218053</v>
       </c>
     </row>
-    <row r="388" hidden="1" spans="1:6">
+    <row r="388" spans="1:6">
       <c r="A388" s="1">
         <v>387</v>
       </c>
@@ -9202,7 +9202,7 @@
         <v>0.167492842637959</v>
       </c>
     </row>
-    <row r="389" hidden="1" spans="1:6">
+    <row r="389" spans="1:6">
       <c r="A389" s="1">
         <v>388</v>
       </c>
@@ -9223,7 +9223,7 @@
         <v>0.0618949063434921</v>
       </c>
     </row>
-    <row r="390" hidden="1" spans="1:6">
+    <row r="390" spans="1:6">
       <c r="A390" s="1">
         <v>389</v>
       </c>
@@ -9244,7 +9244,7 @@
         <v>0.0173961770318514</v>
       </c>
     </row>
-    <row r="391" hidden="1" spans="1:6">
+    <row r="391" spans="1:6">
       <c r="A391" s="1">
         <v>390</v>
       </c>
@@ -9265,7 +9265,7 @@
         <v>-44.7672033388038</v>
       </c>
     </row>
-    <row r="392" hidden="1" spans="1:6">
+    <row r="392" spans="1:6">
       <c r="A392" s="1">
         <v>391</v>
       </c>
@@ -9286,7 +9286,7 @@
         <v>32.8782037059489</v>
       </c>
     </row>
-    <row r="393" hidden="1" spans="1:6">
+    <row r="393" spans="1:6">
       <c r="A393" s="1">
         <v>392</v>
       </c>
@@ -9307,7 +9307,7 @@
         <v>11.2377099762564</v>
       </c>
     </row>
-    <row r="394" hidden="1" spans="1:6">
+    <row r="394" spans="1:6">
       <c r="A394" s="1">
         <v>393</v>
       </c>
@@ -9328,7 +9328,7 @@
         <v>4.70269199664752</v>
       </c>
     </row>
-    <row r="395" hidden="1" spans="1:6">
+    <row r="395" spans="1:6">
       <c r="A395" s="1">
         <v>394</v>
       </c>
@@ -9349,7 +9349,7 @@
         <v>2.01187810155889</v>
       </c>
     </row>
-    <row r="396" hidden="1" spans="1:6">
+    <row r="396" spans="1:6">
       <c r="A396" s="1">
         <v>395</v>
       </c>
@@ -9370,7 +9370,7 @@
         <v>0.893708639121309</v>
       </c>
     </row>
-    <row r="397" hidden="1" spans="1:6">
+    <row r="397" spans="1:6">
       <c r="A397" s="1">
         <v>396</v>
       </c>
@@ -9391,7 +9391,7 @@
         <v>0.401620159956837</v>
       </c>
     </row>
-    <row r="398" hidden="1" spans="1:6">
+    <row r="398" spans="1:6">
       <c r="A398" s="1">
         <v>397</v>
       </c>
@@ -9412,7 +9412,7 @@
         <v>0.177520446824479</v>
       </c>
     </row>
-    <row r="399" hidden="1" spans="1:6">
+    <row r="399" spans="1:6">
       <c r="A399" s="1">
         <v>398</v>
       </c>
@@ -9433,7 +9433,7 @@
         <v>0.0791015925006839</v>
       </c>
     </row>
-    <row r="400" hidden="1" spans="1:6">
+    <row r="400" spans="1:6">
       <c r="A400" s="1">
         <v>399</v>
       </c>
@@ -9454,7 +9454,7 @@
         <v>0.0297525656511838</v>
       </c>
     </row>
-    <row r="401" hidden="1" spans="1:6">
+    <row r="401" spans="1:6">
       <c r="A401" s="1">
         <v>400</v>
       </c>
@@ -9685,7 +9685,7 @@
         <v>-6.40144008327467</v>
       </c>
     </row>
-    <row r="412" hidden="1" spans="1:6">
+    <row r="412" spans="1:6">
       <c r="A412" s="1">
         <v>411</v>
       </c>
@@ -9706,7 +9706,7 @@
         <v>30.1613791588861</v>
       </c>
     </row>
-    <row r="413" hidden="1" spans="1:6">
+    <row r="413" spans="1:6">
       <c r="A413" s="1">
         <v>412</v>
       </c>
@@ -9727,7 +9727,7 @@
         <v>4.53686741530413</v>
       </c>
     </row>
-    <row r="414" hidden="1" spans="1:6">
+    <row r="414" spans="1:6">
       <c r="A414" s="1">
         <v>413</v>
       </c>
@@ -9748,7 +9748,7 @@
         <v>1.0376217967107</v>
       </c>
     </row>
-    <row r="415" hidden="1" spans="1:6">
+    <row r="415" spans="1:6">
       <c r="A415" s="1">
         <v>414</v>
       </c>
@@ -9769,7 +9769,7 @@
         <v>0.141334053601258</v>
       </c>
     </row>
-    <row r="416" hidden="1" spans="1:6">
+    <row r="416" spans="1:6">
       <c r="A416" s="1">
         <v>415</v>
       </c>
@@ -9790,7 +9790,7 @@
         <v>-0.114302302556725</v>
       </c>
     </row>
-    <row r="417" hidden="1" spans="1:6">
+    <row r="417" spans="1:6">
       <c r="A417" s="1">
         <v>416</v>
       </c>
@@ -9811,7 +9811,7 @@
         <v>-0.210863325200817</v>
       </c>
     </row>
-    <row r="418" hidden="1" spans="1:6">
+    <row r="418" spans="1:6">
       <c r="A418" s="1">
         <v>417</v>
       </c>
@@ -9832,7 +9832,7 @@
         <v>-0.224251529708878</v>
       </c>
     </row>
-    <row r="419" hidden="1" spans="1:6">
+    <row r="419" spans="1:6">
       <c r="A419" s="1">
         <v>418</v>
       </c>
@@ -9853,7 +9853,7 @@
         <v>-0.225810942280641</v>
       </c>
     </row>
-    <row r="420" hidden="1" spans="1:6">
+    <row r="420" spans="1:6">
       <c r="A420" s="1">
         <v>419</v>
       </c>
@@ -9874,7 +9874,7 @@
         <v>-0.176292035446675</v>
       </c>
     </row>
-    <row r="421" hidden="1" spans="1:6">
+    <row r="421" spans="1:6">
       <c r="A421" s="1">
         <v>420</v>
       </c>
@@ -9895,7 +9895,7 @@
         <v>-33.5123564834752</v>
       </c>
     </row>
-    <row r="422" hidden="1" spans="1:6">
+    <row r="422" spans="1:6">
       <c r="A422" s="1">
         <v>421</v>
       </c>
@@ -9916,7 +9916,7 @@
         <v>37.8545987908721</v>
       </c>
     </row>
-    <row r="423" hidden="1" spans="1:6">
+    <row r="423" spans="1:6">
       <c r="A423" s="1">
         <v>422</v>
       </c>
@@ -9937,7 +9937,7 @@
         <v>11.4851184075129</v>
       </c>
     </row>
-    <row r="424" hidden="1" spans="1:6">
+    <row r="424" spans="1:6">
       <c r="A424" s="1">
         <v>423</v>
       </c>
@@ -9958,7 +9958,7 @@
         <v>2.69348980128456</v>
       </c>
     </row>
-    <row r="425" hidden="1" spans="1:6">
+    <row r="425" spans="1:6">
       <c r="A425" s="1">
         <v>424</v>
       </c>
@@ -9979,7 +9979,7 @@
         <v>0.672106994111943</v>
       </c>
     </row>
-    <row r="426" hidden="1" spans="1:6">
+    <row r="426" spans="1:6">
       <c r="A426" s="1">
         <v>425</v>
       </c>
@@ -10000,7 +10000,7 @@
         <v>0.152365139844101</v>
       </c>
     </row>
-    <row r="427" hidden="1" spans="1:6">
+    <row r="427" spans="1:6">
       <c r="A427" s="1">
         <v>426</v>
       </c>
@@ -10021,7 +10021,7 @@
         <v>-0.0433837485077488</v>
       </c>
     </row>
-    <row r="428" hidden="1" spans="1:6">
+    <row r="428" spans="1:6">
       <c r="A428" s="1">
         <v>427</v>
       </c>
@@ -10042,7 +10042,7 @@
         <v>-0.100050008145026</v>
       </c>
     </row>
-    <row r="429" hidden="1" spans="1:6">
+    <row r="429" spans="1:6">
       <c r="A429" s="1">
         <v>428</v>
       </c>
@@ -10063,7 +10063,7 @@
         <v>-0.114893485642989</v>
       </c>
     </row>
-    <row r="430" hidden="1" spans="1:6">
+    <row r="430" spans="1:6">
       <c r="A430" s="1">
         <v>429</v>
       </c>
@@ -10084,7 +10084,7 @@
         <v>-0.123285089537236</v>
       </c>
     </row>
-    <row r="431" hidden="1" spans="1:6">
+    <row r="431" spans="1:6">
       <c r="A431" s="1">
         <v>430</v>
       </c>
@@ -10105,7 +10105,7 @@
         <v>-42.9187387244679</v>
       </c>
     </row>
-    <row r="432" hidden="1" spans="1:6">
+    <row r="432" spans="1:6">
       <c r="A432" s="1">
         <v>431</v>
       </c>
@@ -10126,7 +10126,7 @@
         <v>36.0172184281056</v>
       </c>
     </row>
-    <row r="433" hidden="1" spans="1:6">
+    <row r="433" spans="1:6">
       <c r="A433" s="1">
         <v>432</v>
       </c>
@@ -10147,7 +10147,7 @@
         <v>12.4099128785879</v>
       </c>
     </row>
-    <row r="434" hidden="1" spans="1:6">
+    <row r="434" spans="1:6">
       <c r="A434" s="1">
         <v>433</v>
       </c>
@@ -10168,7 +10168,7 @@
         <v>5.18979036611579</v>
       </c>
     </row>
-    <row r="435" hidden="1" spans="1:6">
+    <row r="435" spans="1:6">
       <c r="A435" s="1">
         <v>434</v>
       </c>
@@ -10189,7 +10189,7 @@
         <v>2.2793787534849</v>
       </c>
     </row>
-    <row r="436" hidden="1" spans="1:6">
+    <row r="436" spans="1:6">
       <c r="A436" s="1">
         <v>435</v>
       </c>
@@ -10210,7 +10210,7 @@
         <v>1.0160030448058</v>
       </c>
     </row>
-    <row r="437" hidden="1" spans="1:6">
+    <row r="437" spans="1:6">
       <c r="A437" s="1">
         <v>436</v>
       </c>
@@ -10231,7 +10231,7 @@
         <v>0.447905072831905</v>
       </c>
     </row>
-    <row r="438" hidden="1" spans="1:6">
+    <row r="438" spans="1:6">
       <c r="A438" s="1">
         <v>437</v>
       </c>
@@ -10252,7 +10252,7 @@
         <v>0.182459044751537</v>
       </c>
     </row>
-    <row r="439" hidden="1" spans="1:6">
+    <row r="439" spans="1:6">
       <c r="A439" s="1">
         <v>438</v>
       </c>
@@ -10273,7 +10273,7 @@
         <v>0.0671289765246749</v>
       </c>
     </row>
-    <row r="440" hidden="1" spans="1:6">
+    <row r="440" spans="1:6">
       <c r="A440" s="1">
         <v>439</v>
       </c>
@@ -10294,7 +10294,7 @@
         <v>0.0174733702041974</v>
       </c>
     </row>
-    <row r="441" hidden="1" spans="1:6">
+    <row r="441" spans="1:6">
       <c r="A441" s="1">
         <v>440</v>
       </c>
@@ -10315,7 +10315,7 @@
         <v>-46.6826680518161</v>
       </c>
     </row>
-    <row r="442" hidden="1" spans="1:6">
+    <row r="442" spans="1:6">
       <c r="A442" s="1">
         <v>441</v>
       </c>
@@ -10336,7 +10336,7 @@
         <v>34.8581479975031</v>
       </c>
     </row>
-    <row r="443" hidden="1" spans="1:6">
+    <row r="443" spans="1:6">
       <c r="A443" s="1">
         <v>442</v>
       </c>
@@ -10357,7 +10357,7 @@
         <v>12.4709968586528</v>
       </c>
     </row>
-    <row r="444" hidden="1" spans="1:6">
+    <row r="444" spans="1:6">
       <c r="A444" s="1">
         <v>443</v>
       </c>
@@ -10378,7 +10378,7 @@
         <v>5.28131101939892</v>
       </c>
     </row>
-    <row r="445" hidden="1" spans="1:6">
+    <row r="445" spans="1:6">
       <c r="A445" s="1">
         <v>444</v>
       </c>
@@ -10399,7 +10399,7 @@
         <v>2.44572807746609</v>
       </c>
     </row>
-    <row r="446" hidden="1" spans="1:6">
+    <row r="446" spans="1:6">
       <c r="A446" s="1">
         <v>445</v>
       </c>
@@ -10420,7 +10420,7 @@
         <v>1.16815180212343</v>
       </c>
     </row>
-    <row r="447" hidden="1" spans="1:6">
+    <row r="447" spans="1:6">
       <c r="A447" s="1">
         <v>446</v>
       </c>
@@ -10441,7 +10441,7 @@
         <v>0.56034504029689</v>
       </c>
     </row>
-    <row r="448" hidden="1" spans="1:6">
+    <row r="448" spans="1:6">
       <c r="A448" s="1">
         <v>447</v>
       </c>
@@ -10462,7 +10462,7 @@
         <v>0.268386547571641</v>
       </c>
     </row>
-    <row r="449" hidden="1" spans="1:6">
+    <row r="449" spans="1:6">
       <c r="A449" s="1">
         <v>448</v>
       </c>
@@ -10483,7 +10483,7 @@
         <v>0.123307188266941</v>
       </c>
     </row>
-    <row r="450" hidden="1" spans="1:6">
+    <row r="450" spans="1:6">
       <c r="A450" s="1">
         <v>449</v>
       </c>
@@ -10504,7 +10504,7 @@
         <v>0.052989460743676</v>
       </c>
     </row>
-    <row r="451" hidden="1" spans="1:6">
+    <row r="451" spans="1:6">
       <c r="A451" s="1">
         <v>450</v>
       </c>
@@ -10735,7 +10735,7 @@
         <v>-4.54241029835415</v>
       </c>
     </row>
-    <row r="462" hidden="1" spans="1:6">
+    <row r="462" spans="1:6">
       <c r="A462" s="1">
         <v>461</v>
       </c>
@@ -10756,7 +10756,7 @@
         <v>31.2284112333313</v>
       </c>
     </row>
-    <row r="463" hidden="1" spans="1:6">
+    <row r="463" spans="1:6">
       <c r="A463" s="1">
         <v>462</v>
       </c>
@@ -10777,7 +10777,7 @@
         <v>5.45022935517143</v>
       </c>
     </row>
-    <row r="464" hidden="1" spans="1:6">
+    <row r="464" spans="1:6">
       <c r="A464" s="1">
         <v>463</v>
       </c>
@@ -10798,7 +10798,7 @@
         <v>1.64678544983807</v>
       </c>
     </row>
-    <row r="465" hidden="1" spans="1:6">
+    <row r="465" spans="1:6">
       <c r="A465" s="1">
         <v>464</v>
       </c>
@@ -10819,7 +10819,7 @@
         <v>0.541941806892594</v>
       </c>
     </row>
-    <row r="466" hidden="1" spans="1:6">
+    <row r="466" spans="1:6">
       <c r="A466" s="1">
         <v>465</v>
       </c>
@@ -10840,7 +10840,7 @@
         <v>0.16339938478291</v>
       </c>
     </row>
-    <row r="467" hidden="1" spans="1:6">
+    <row r="467" spans="1:6">
       <c r="A467" s="1">
         <v>466</v>
       </c>
@@ -10861,7 +10861,7 @@
         <v>0.00090723484777507</v>
       </c>
     </row>
-    <row r="468" hidden="1" spans="1:6">
+    <row r="468" spans="1:6">
       <c r="A468" s="1">
         <v>467</v>
       </c>
@@ -10882,7 +10882,7 @@
         <v>-0.06654785484319</v>
       </c>
     </row>
-    <row r="469" hidden="1" spans="1:6">
+    <row r="469" spans="1:6">
       <c r="A469" s="1">
         <v>468</v>
       </c>
@@ -10903,7 +10903,7 @@
         <v>-0.105096568122336</v>
       </c>
     </row>
-    <row r="470" hidden="1" spans="1:6">
+    <row r="470" spans="1:6">
       <c r="A470" s="1">
         <v>469</v>
       </c>
@@ -10924,7 +10924,7 @@
         <v>-0.109981245927542</v>
       </c>
     </row>
-    <row r="471" hidden="1" spans="1:6">
+    <row r="471" spans="1:6">
       <c r="A471" s="1">
         <v>470</v>
       </c>
@@ -10945,7 +10945,7 @@
         <v>-35.1657111202295</v>
       </c>
     </row>
-    <row r="472" hidden="1" spans="1:6">
+    <row r="472" spans="1:6">
       <c r="A472" s="1">
         <v>471</v>
       </c>
@@ -10966,7 +10966,7 @@
         <v>40.9111366265926</v>
       </c>
     </row>
-    <row r="473" hidden="1" spans="1:6">
+    <row r="473" spans="1:6">
       <c r="A473" s="1">
         <v>472</v>
       </c>
@@ -10987,7 +10987,7 @@
         <v>11.4401185264245</v>
       </c>
     </row>
-    <row r="474" hidden="1" spans="1:6">
+    <row r="474" spans="1:6">
       <c r="A474" s="1">
         <v>473</v>
       </c>
@@ -11008,7 +11008,7 @@
         <v>2.73214691962108</v>
       </c>
     </row>
-    <row r="475" hidden="1" spans="1:6">
+    <row r="475" spans="1:6">
       <c r="A475" s="1">
         <v>474</v>
       </c>
@@ -11029,7 +11029,7 @@
         <v>0.951423233287966</v>
       </c>
     </row>
-    <row r="476" hidden="1" spans="1:6">
+    <row r="476" spans="1:6">
       <c r="A476" s="1">
         <v>475</v>
       </c>
@@ -11050,7 +11050,7 @@
         <v>0.351265363954878</v>
       </c>
     </row>
-    <row r="477" hidden="1" spans="1:6">
+    <row r="477" spans="1:6">
       <c r="A477" s="1">
         <v>476</v>
       </c>
@@ -11071,7 +11071,7 @@
         <v>0.102359279526842</v>
       </c>
     </row>
-    <row r="478" hidden="1" spans="1:6">
+    <row r="478" spans="1:6">
       <c r="A478" s="1">
         <v>477</v>
       </c>
@@ -11092,7 +11092,7 @@
         <v>-0.00863311089361062</v>
       </c>
     </row>
-    <row r="479" hidden="1" spans="1:6">
+    <row r="479" spans="1:6">
       <c r="A479" s="1">
         <v>478</v>
       </c>
@@ -11113,7 +11113,7 @@
         <v>-0.0563315507869698</v>
       </c>
     </row>
-    <row r="480" hidden="1" spans="1:6">
+    <row r="480" spans="1:6">
       <c r="A480" s="1">
         <v>479</v>
       </c>
@@ -11134,7 +11134,7 @@
         <v>-0.0788938524469622</v>
       </c>
     </row>
-    <row r="481" hidden="1" spans="1:6">
+    <row r="481" spans="1:6">
       <c r="A481" s="1">
         <v>480</v>
       </c>
@@ -11155,7 +11155,7 @@
         <v>-43.6537762209042</v>
       </c>
     </row>
-    <row r="482" hidden="1" spans="1:6">
+    <row r="482" spans="1:6">
       <c r="A482" s="1">
         <v>481</v>
       </c>
@@ -11176,7 +11176,7 @@
         <v>37.7585562312007</v>
       </c>
     </row>
-    <row r="483" hidden="1" spans="1:6">
+    <row r="483" spans="1:6">
       <c r="A483" s="1">
         <v>482</v>
       </c>
@@ -11197,7 +11197,7 @@
         <v>14.2382065854419</v>
       </c>
     </row>
-    <row r="484" hidden="1" spans="1:6">
+    <row r="484" spans="1:6">
       <c r="A484" s="1">
         <v>483</v>
       </c>
@@ -11218,7 +11218,7 @@
         <v>5.96246224734746</v>
       </c>
     </row>
-    <row r="485" hidden="1" spans="1:6">
+    <row r="485" spans="1:6">
       <c r="A485" s="1">
         <v>484</v>
       </c>
@@ -11239,7 +11239,7 @@
         <v>2.36165056939332</v>
       </c>
     </row>
-    <row r="486" hidden="1" spans="1:6">
+    <row r="486" spans="1:6">
       <c r="A486" s="1">
         <v>485</v>
       </c>
@@ -11260,7 +11260,7 @@
         <v>0.75540273320099</v>
       </c>
     </row>
-    <row r="487" hidden="1" spans="1:6">
+    <row r="487" spans="1:6">
       <c r="A487" s="1">
         <v>486</v>
       </c>
@@ -11281,7 +11281,7 @@
         <v>0.25676663676342</v>
       </c>
     </row>
-    <row r="488" hidden="1" spans="1:6">
+    <row r="488" spans="1:6">
       <c r="A488" s="1">
         <v>487</v>
       </c>
@@ -11302,7 +11302,7 @@
         <v>0.0756106920980321</v>
       </c>
     </row>
-    <row r="489" hidden="1" spans="1:6">
+    <row r="489" spans="1:6">
       <c r="A489" s="1">
         <v>488</v>
       </c>
@@ -11323,7 +11323,7 @@
         <v>0.000947078095479109</v>
       </c>
     </row>
-    <row r="490" hidden="1" spans="1:6">
+    <row r="490" spans="1:6">
       <c r="A490" s="1">
         <v>489</v>
       </c>
@@ -11344,7 +11344,7 @@
         <v>-0.0298027487747057</v>
       </c>
     </row>
-    <row r="491" hidden="1" spans="1:6">
+    <row r="491" spans="1:6">
       <c r="A491" s="1">
         <v>490</v>
       </c>
@@ -11365,7 +11365,7 @@
         <v>-47.3213934955489</v>
       </c>
     </row>
-    <row r="492" hidden="1" spans="1:6">
+    <row r="492" spans="1:6">
       <c r="A492" s="1">
         <v>491</v>
       </c>
@@ -11386,7 +11386,7 @@
         <v>36.4323099782545</v>
       </c>
     </row>
-    <row r="493" hidden="1" spans="1:6">
+    <row r="493" spans="1:6">
       <c r="A493" s="1">
         <v>492</v>
       </c>
@@ -11407,7 +11407,7 @@
         <v>14.2154021472189</v>
       </c>
     </row>
-    <row r="494" hidden="1" spans="1:6">
+    <row r="494" spans="1:6">
       <c r="A494" s="1">
         <v>493</v>
       </c>
@@ -11428,7 +11428,7 @@
         <v>6.40861747396619</v>
       </c>
     </row>
-    <row r="495" hidden="1" spans="1:6">
+    <row r="495" spans="1:6">
       <c r="A495" s="1">
         <v>494</v>
       </c>
@@ -11449,7 +11449,7 @@
         <v>3.12987448316245</v>
       </c>
     </row>
-    <row r="496" hidden="1" spans="1:6">
+    <row r="496" spans="1:6">
       <c r="A496" s="1">
         <v>495</v>
       </c>
@@ -11470,7 +11470,7 @@
         <v>1.59285022652623</v>
       </c>
     </row>
-    <row r="497" hidden="1" spans="1:6">
+    <row r="497" spans="1:6">
       <c r="A497" s="1">
         <v>496</v>
       </c>
@@ -11491,7 +11491,7 @@
         <v>0.821395367571654</v>
       </c>
     </row>
-    <row r="498" hidden="1" spans="1:6">
+    <row r="498" spans="1:6">
       <c r="A498" s="1">
         <v>497</v>
       </c>
@@ -11512,7 +11512,7 @@
         <v>0.425474261341873</v>
       </c>
     </row>
-    <row r="499" hidden="1" spans="1:6">
+    <row r="499" spans="1:6">
       <c r="A499" s="1">
         <v>498</v>
       </c>
@@ -11533,7 +11533,7 @@
         <v>0.219712787808333</v>
       </c>
     </row>
-    <row r="500" hidden="1" spans="1:6">
+    <row r="500" spans="1:6">
       <c r="A500" s="1">
         <v>499</v>
       </c>
@@ -11554,7 +11554,7 @@
         <v>0.110268055617088</v>
       </c>
     </row>
-    <row r="501" hidden="1" spans="1:6">
+    <row r="501" spans="1:6">
       <c r="A501" s="1">
         <v>500</v>
       </c>
@@ -11785,7 +11785,7 @@
         <v>0.614339303470204</v>
       </c>
     </row>
-    <row r="512" hidden="1" spans="1:6">
+    <row r="512" spans="1:6">
       <c r="A512" s="1">
         <v>511</v>
       </c>
@@ -11806,7 +11806,7 @@
         <v>26.9963048542121</v>
       </c>
     </row>
-    <row r="513" hidden="1" spans="1:6">
+    <row r="513" spans="1:6">
       <c r="A513" s="1">
         <v>512</v>
       </c>
@@ -11827,7 +11827,7 @@
         <v>4.70817106619388</v>
       </c>
     </row>
-    <row r="514" hidden="1" spans="1:6">
+    <row r="514" spans="1:6">
       <c r="A514" s="1">
         <v>513</v>
       </c>
@@ -11848,7 +11848,7 @@
         <v>1.3546334437948</v>
       </c>
     </row>
-    <row r="515" hidden="1" spans="1:6">
+    <row r="515" spans="1:6">
       <c r="A515" s="1">
         <v>514</v>
       </c>
@@ -11869,7 +11869,7 @@
         <v>0.323101252800006</v>
       </c>
     </row>
-    <row r="516" hidden="1" spans="1:6">
+    <row r="516" spans="1:6">
       <c r="A516" s="1">
         <v>515</v>
       </c>
@@ -11890,7 +11890,7 @@
         <v>0.0189802253509251</v>
       </c>
     </row>
-    <row r="517" hidden="1" spans="1:6">
+    <row r="517" spans="1:6">
       <c r="A517" s="1">
         <v>516</v>
       </c>
@@ -11911,7 +11911,7 @@
         <v>-0.0330817402614067</v>
       </c>
     </row>
-    <row r="518" hidden="1" spans="1:6">
+    <row r="518" spans="1:6">
       <c r="A518" s="1">
         <v>517</v>
       </c>
@@ -11932,7 +11932,7 @@
         <v>-0.0721045998260999</v>
       </c>
     </row>
-    <row r="519" hidden="1" spans="1:6">
+    <row r="519" spans="1:6">
       <c r="A519" s="1">
         <v>518</v>
       </c>
@@ -11953,7 +11953,7 @@
         <v>-0.13034667210195</v>
       </c>
     </row>
-    <row r="520" hidden="1" spans="1:6">
+    <row r="520" spans="1:6">
       <c r="A520" s="1">
         <v>519</v>
       </c>
@@ -11974,7 +11974,7 @@
         <v>-0.132100354017687</v>
       </c>
     </row>
-    <row r="521" hidden="1" spans="1:6">
+    <row r="521" spans="1:6">
       <c r="A521" s="1">
         <v>520</v>
       </c>
@@ -11995,7 +11995,7 @@
         <v>-30.8399131300364</v>
       </c>
     </row>
-    <row r="522" hidden="1" spans="1:6">
+    <row r="522" spans="1:6">
       <c r="A522" s="1">
         <v>521</v>
       </c>
@@ -12016,7 +12016,7 @@
         <v>37.8791635669947</v>
       </c>
     </row>
-    <row r="523" hidden="1" spans="1:6">
+    <row r="523" spans="1:6">
       <c r="A523" s="1">
         <v>522</v>
       </c>
@@ -12037,7 +12037,7 @@
         <v>8.30696548642059</v>
       </c>
     </row>
-    <row r="524" hidden="1" spans="1:6">
+    <row r="524" spans="1:6">
       <c r="A524" s="1">
         <v>523</v>
       </c>
@@ -12058,7 +12058,7 @@
         <v>2.26903844666053</v>
       </c>
     </row>
-    <row r="525" hidden="1" spans="1:6">
+    <row r="525" spans="1:6">
       <c r="A525" s="1">
         <v>524</v>
       </c>
@@ -12079,7 +12079,7 @@
         <v>0.767746208662915</v>
       </c>
     </row>
-    <row r="526" hidden="1" spans="1:6">
+    <row r="526" spans="1:6">
       <c r="A526" s="1">
         <v>525</v>
       </c>
@@ -12100,7 +12100,7 @@
         <v>0.230540855390884</v>
       </c>
     </row>
-    <row r="527" hidden="1" spans="1:6">
+    <row r="527" spans="1:6">
       <c r="A527" s="1">
         <v>526</v>
       </c>
@@ -12121,7 +12121,7 @@
         <v>0.00684785587654446</v>
       </c>
     </row>
-    <row r="528" hidden="1" spans="1:6">
+    <row r="528" spans="1:6">
       <c r="A528" s="1">
         <v>527</v>
       </c>
@@ -12142,7 +12142,7 @@
         <v>-0.483994352257288</v>
       </c>
     </row>
-    <row r="529" hidden="1" spans="1:6">
+    <row r="529" spans="1:6">
       <c r="A529" s="1">
         <v>528</v>
       </c>
@@ -12163,7 +12163,7 @@
         <v>0.292397172969279</v>
       </c>
     </row>
-    <row r="530" hidden="1" spans="1:6">
+    <row r="530" spans="1:6">
       <c r="A530" s="1">
         <v>529</v>
       </c>
@@ -12184,7 +12184,7 @@
         <v>-0.0984266749500417</v>
       </c>
     </row>
-    <row r="531" hidden="1" spans="1:6">
+    <row r="531" spans="1:6">
       <c r="A531" s="1">
         <v>530</v>
       </c>
@@ -12205,7 +12205,7 @@
         <v>-41.0692549008305</v>
       </c>
     </row>
-    <row r="532" hidden="1" spans="1:6">
+    <row r="532" spans="1:6">
       <c r="A532" s="1">
         <v>531</v>
       </c>
@@ -12226,7 +12226,7 @@
         <v>38.4998482910395</v>
       </c>
     </row>
-    <row r="533" hidden="1" spans="1:6">
+    <row r="533" spans="1:6">
       <c r="A533" s="1">
         <v>532</v>
       </c>
@@ -12247,7 +12247,7 @@
         <v>14.380960445925</v>
       </c>
     </row>
-    <row r="534" hidden="1" spans="1:6">
+    <row r="534" spans="1:6">
       <c r="A534" s="1">
         <v>533</v>
       </c>
@@ -12268,7 +12268,7 @@
         <v>6.40723216234066</v>
       </c>
     </row>
-    <row r="535" hidden="1" spans="1:6">
+    <row r="535" spans="1:6">
       <c r="A535" s="1">
         <v>534</v>
       </c>
@@ -12289,7 +12289,7 @@
         <v>2.89383995652906</v>
       </c>
     </row>
-    <row r="536" hidden="1" spans="1:6">
+    <row r="536" spans="1:6">
       <c r="A536" s="1">
         <v>535</v>
       </c>
@@ -12310,7 +12310,7 @@
         <v>1.19856430625597</v>
       </c>
     </row>
-    <row r="537" hidden="1" spans="1:6">
+    <row r="537" spans="1:6">
       <c r="A537" s="1">
         <v>536</v>
       </c>
@@ -12331,7 +12331,7 @@
         <v>0.420381344233897</v>
       </c>
     </row>
-    <row r="538" hidden="1" spans="1:6">
+    <row r="538" spans="1:6">
       <c r="A538" s="1">
         <v>537</v>
       </c>
@@ -12352,7 +12352,7 @@
         <v>0.148776745338216</v>
       </c>
     </row>
-    <row r="539" hidden="1" spans="1:6">
+    <row r="539" spans="1:6">
       <c r="A539" s="1">
         <v>538</v>
       </c>
@@ -12373,7 +12373,7 @@
         <v>0.0370267995844546</v>
       </c>
     </row>
-    <row r="540" hidden="1" spans="1:6">
+    <row r="540" spans="1:6">
       <c r="A540" s="1">
         <v>539</v>
       </c>
@@ -12394,7 +12394,7 @@
         <v>-0.0141850657017884</v>
       </c>
     </row>
-    <row r="541" hidden="1" spans="1:6">
+    <row r="541" spans="1:6">
       <c r="A541" s="1">
         <v>540</v>
       </c>
@@ -12415,7 +12415,7 @@
         <v>-47.2451628629511</v>
       </c>
     </row>
-    <row r="542" hidden="1" spans="1:6">
+    <row r="542" spans="1:6">
       <c r="A542" s="1">
         <v>541</v>
       </c>
@@ -12436,7 +12436,7 @@
         <v>35.618150465377</v>
       </c>
     </row>
-    <row r="543" hidden="1" spans="1:6">
+    <row r="543" spans="1:6">
       <c r="A543" s="1">
         <v>542</v>
       </c>
@@ -12457,7 +12457,7 @@
         <v>13.6037816223163</v>
       </c>
     </row>
-    <row r="544" hidden="1" spans="1:6">
+    <row r="544" spans="1:6">
       <c r="A544" s="1">
         <v>543</v>
       </c>
@@ -12478,7 +12478,7 @@
         <v>6.36800420304567</v>
       </c>
     </row>
-    <row r="545" hidden="1" spans="1:6">
+    <row r="545" spans="1:6">
       <c r="A545" s="1">
         <v>544</v>
       </c>
@@ -12499,7 +12499,7 @@
         <v>3.23308096550591</v>
       </c>
     </row>
-    <row r="546" hidden="1" spans="1:6">
+    <row r="546" spans="1:6">
       <c r="A546" s="1">
         <v>545</v>
       </c>
@@ -12520,7 +12520,7 @@
         <v>1.68805959698785</v>
       </c>
     </row>
-    <row r="547" hidden="1" spans="1:6">
+    <row r="547" spans="1:6">
       <c r="A547" s="1">
         <v>546</v>
       </c>
@@ -12541,7 +12541,7 @@
         <v>0.885221080638032</v>
       </c>
     </row>
-    <row r="548" hidden="1" spans="1:6">
+    <row r="548" spans="1:6">
       <c r="A548" s="1">
         <v>547</v>
       </c>
@@ -12562,7 +12562,7 @@
         <v>0.470204252936648</v>
       </c>
     </row>
-    <row r="549" hidden="1" spans="1:6">
+    <row r="549" spans="1:6">
       <c r="A549" s="1">
         <v>548</v>
       </c>
@@ -12583,7 +12583,7 @@
         <v>0.243108365506294</v>
       </c>
     </row>
-    <row r="550" hidden="1" spans="1:6">
+    <row r="550" spans="1:6">
       <c r="A550" s="1">
         <v>549</v>
       </c>
@@ -12604,7 +12604,7 @@
         <v>0.125925061710382</v>
       </c>
     </row>
-    <row r="551" hidden="1" spans="1:6">
+    <row r="551" spans="1:6">
       <c r="A551" s="1">
         <v>550</v>
       </c>
@@ -12835,7 +12835,7 @@
         <v>3.57025705189452</v>
       </c>
     </row>
-    <row r="562" hidden="1" spans="1:6">
+    <row r="562" spans="1:6">
       <c r="A562" s="1">
         <v>561</v>
       </c>
@@ -12856,7 +12856,7 @@
         <v>31.368123917031</v>
       </c>
     </row>
-    <row r="563" hidden="1" spans="1:6">
+    <row r="563" spans="1:6">
       <c r="A563" s="1">
         <v>562</v>
       </c>
@@ -12877,7 +12877,7 @@
         <v>5.24849669100528</v>
       </c>
     </row>
-    <row r="564" hidden="1" spans="1:6">
+    <row r="564" spans="1:6">
       <c r="A564" s="1">
         <v>563</v>
       </c>
@@ -12898,7 +12898,7 @@
         <v>1.60361135551421</v>
       </c>
     </row>
-    <row r="565" hidden="1" spans="1:6">
+    <row r="565" spans="1:6">
       <c r="A565" s="1">
         <v>564</v>
       </c>
@@ -12919,7 +12919,7 @@
         <v>0.501389041442091</v>
       </c>
     </row>
-    <row r="566" hidden="1" spans="1:6">
+    <row r="566" spans="1:6">
       <c r="A566" s="1">
         <v>565</v>
       </c>
@@ -12940,7 +12940,7 @@
         <v>0.0920854703145961</v>
       </c>
     </row>
-    <row r="567" hidden="1" spans="1:6">
+    <row r="567" spans="1:6">
       <c r="A567" s="1">
         <v>566</v>
       </c>
@@ -12961,7 +12961,7 @@
         <v>-0.096704956040232</v>
       </c>
     </row>
-    <row r="568" hidden="1" spans="1:6">
+    <row r="568" spans="1:6">
       <c r="A568" s="1">
         <v>567</v>
       </c>
@@ -12982,7 +12982,7 @@
         <v>-0.179075833998441</v>
       </c>
     </row>
-    <row r="569" hidden="1" spans="1:6">
+    <row r="569" spans="1:6">
       <c r="A569" s="1">
         <v>568</v>
       </c>
@@ -13003,7 +13003,7 @@
         <v>-0.214358237835473</v>
       </c>
     </row>
-    <row r="570" hidden="1" spans="1:6">
+    <row r="570" spans="1:6">
       <c r="A570" s="1">
         <v>569</v>
       </c>
@@ -13024,7 +13024,7 @@
         <v>-0.218309736966614</v>
       </c>
     </row>
-    <row r="571" hidden="1" spans="1:6">
+    <row r="571" spans="1:6">
       <c r="A571" s="1">
         <v>570</v>
       </c>
@@ -13045,7 +13045,7 @@
         <v>-34.9234412462527</v>
       </c>
     </row>
-    <row r="572" hidden="1" spans="1:6">
+    <row r="572" spans="1:6">
       <c r="A572" s="1">
         <v>571</v>
       </c>
@@ -13066,7 +13066,7 @@
         <v>39.9827271644068</v>
       </c>
     </row>
-    <row r="573" hidden="1" spans="1:6">
+    <row r="573" spans="1:6">
       <c r="A573" s="1">
         <v>572</v>
       </c>
@@ -13087,7 +13087,7 @@
         <v>11.0639010726398</v>
       </c>
     </row>
-    <row r="574" hidden="1" spans="1:6">
+    <row r="574" spans="1:6">
       <c r="A574" s="1">
         <v>573</v>
       </c>
@@ -13108,7 +13108,7 @@
         <v>2.93933565833532</v>
       </c>
     </row>
-    <row r="575" hidden="1" spans="1:6">
+    <row r="575" spans="1:6">
       <c r="A575" s="1">
         <v>574</v>
       </c>
@@ -13129,7 +13129,7 @@
         <v>1.1453598961813</v>
       </c>
     </row>
-    <row r="576" hidden="1" spans="1:6">
+    <row r="576" spans="1:6">
       <c r="A576" s="1">
         <v>575</v>
       </c>
@@ -13150,7 +13150,7 @@
         <v>0.539814094942616</v>
       </c>
     </row>
-    <row r="577" hidden="1" spans="1:6">
+    <row r="577" spans="1:6">
       <c r="A577" s="1">
         <v>576</v>
       </c>
@@ -13171,7 +13171,7 @@
         <v>0.121131123059542</v>
       </c>
     </row>
-    <row r="578" hidden="1" spans="1:6">
+    <row r="578" spans="1:6">
       <c r="A578" s="1">
         <v>577</v>
       </c>
@@ -13192,7 +13192,7 @@
         <v>0.0325870783849342</v>
       </c>
     </row>
-    <row r="579" hidden="1" spans="1:6">
+    <row r="579" spans="1:6">
       <c r="A579" s="1">
         <v>578</v>
       </c>
@@ -13213,7 +13213,7 @@
         <v>-0.042742661369521</v>
       </c>
     </row>
-    <row r="580" hidden="1" spans="1:6">
+    <row r="580" spans="1:6">
       <c r="A580" s="1">
         <v>579</v>
       </c>
@@ -13234,7 +13234,7 @@
         <v>-0.0783345166225654</v>
       </c>
     </row>
-    <row r="581" hidden="1" spans="1:6">
+    <row r="581" spans="1:6">
       <c r="A581" s="1">
         <v>580</v>
       </c>
@@ -13255,7 +13255,7 @@
         <v>-43.8951157702331</v>
       </c>
     </row>
-    <row r="582" hidden="1" spans="1:6">
+    <row r="582" spans="1:6">
       <c r="A582" s="1">
         <v>581</v>
       </c>
@@ -13276,7 +13276,7 @@
         <v>38.7553652872293</v>
       </c>
     </row>
-    <row r="583" hidden="1" spans="1:6">
+    <row r="583" spans="1:6">
       <c r="A583" s="1">
         <v>582</v>
       </c>
@@ -13297,7 +13297,7 @@
         <v>14.4523549206215</v>
       </c>
     </row>
-    <row r="584" hidden="1" spans="1:6">
+    <row r="584" spans="1:6">
       <c r="A584" s="1">
         <v>583</v>
       </c>
@@ -13318,7 +13318,7 @@
         <v>5.65674057117678</v>
       </c>
     </row>
-    <row r="585" hidden="1" spans="1:6">
+    <row r="585" spans="1:6">
       <c r="A585" s="1">
         <v>584</v>
       </c>
@@ -13339,7 +13339,7 @@
         <v>1.91564582664041</v>
       </c>
     </row>
-    <row r="586" hidden="1" spans="1:6">
+    <row r="586" spans="1:6">
       <c r="A586" s="1">
         <v>585</v>
       </c>
@@ -13360,7 +13360,7 @@
         <v>0.836719811406388</v>
       </c>
     </row>
-    <row r="587" hidden="1" spans="1:6">
+    <row r="587" spans="1:6">
       <c r="A587" s="1">
         <v>586</v>
       </c>
@@ -13381,7 +13381,7 @@
         <v>0.385057684218038</v>
       </c>
     </row>
-    <row r="588" hidden="1" spans="1:6">
+    <row r="588" spans="1:6">
       <c r="A588" s="1">
         <v>587</v>
       </c>
@@ -13402,7 +13402,7 @@
         <v>0.165619557757746</v>
       </c>
     </row>
-    <row r="589" hidden="1" spans="1:6">
+    <row r="589" spans="1:6">
       <c r="A589" s="1">
         <v>588</v>
       </c>
@@ -13423,7 +13423,7 @@
         <v>0.0583333863522783</v>
       </c>
     </row>
-    <row r="590" hidden="1" spans="1:6">
+    <row r="590" spans="1:6">
       <c r="A590" s="1">
         <v>589</v>
       </c>
@@ -13444,7 +13444,7 @@
         <v>0.00429003688658263</v>
       </c>
     </row>
-    <row r="591" hidden="1" spans="1:6">
+    <row r="591" spans="1:6">
       <c r="A591" s="1">
         <v>590</v>
       </c>
@@ -13465,7 +13465,7 @@
         <v>-47.1951011036755</v>
       </c>
     </row>
-    <row r="592" hidden="1" spans="1:6">
+    <row r="592" spans="1:6">
       <c r="A592" s="1">
         <v>591</v>
       </c>
@@ -13486,7 +13486,7 @@
         <v>37.3758403961484</v>
       </c>
     </row>
-    <row r="593" hidden="1" spans="1:6">
+    <row r="593" spans="1:6">
       <c r="A593" s="1">
         <v>592</v>
       </c>
@@ -13507,7 +13507,7 @@
         <v>14.8726455415084</v>
       </c>
     </row>
-    <row r="594" hidden="1" spans="1:6">
+    <row r="594" spans="1:6">
       <c r="A594" s="1">
         <v>593</v>
       </c>
@@ -13528,7 +13528,7 @@
         <v>7.48453615288973</v>
       </c>
     </row>
-    <row r="595" hidden="1" spans="1:6">
+    <row r="595" spans="1:6">
       <c r="A595" s="1">
         <v>594</v>
       </c>
@@ -13549,7 +13549,7 @@
         <v>4.06194630574513</v>
       </c>
     </row>
-    <row r="596" hidden="1" spans="1:6">
+    <row r="596" spans="1:6">
       <c r="A596" s="1">
         <v>595</v>
       </c>
@@ -13570,7 +13570,7 @@
         <v>2.22177094471101</v>
       </c>
     </row>
-    <row r="597" hidden="1" spans="1:6">
+    <row r="597" spans="1:6">
       <c r="A597" s="1">
         <v>596</v>
       </c>
@@ -13591,7 +13591,7 @@
         <v>1.23211410231095</v>
       </c>
     </row>
-    <row r="598" hidden="1" spans="1:6">
+    <row r="598" spans="1:6">
       <c r="A598" s="1">
         <v>597</v>
       </c>
@@ -13612,7 +13612,7 @@
         <v>0.69561068667316</v>
       </c>
     </row>
-    <row r="599" hidden="1" spans="1:6">
+    <row r="599" spans="1:6">
       <c r="A599" s="1">
         <v>598</v>
       </c>
@@ -13633,7 +13633,7 @@
         <v>0.392852120992783</v>
       </c>
     </row>
-    <row r="600" hidden="1" spans="1:6">
+    <row r="600" spans="1:6">
       <c r="A600" s="1">
         <v>599</v>
       </c>
@@ -13654,7 +13654,7 @@
         <v>0.220111815454073</v>
       </c>
     </row>
-    <row r="601" hidden="1" spans="1:6">
+    <row r="601" spans="1:6">
       <c r="A601" s="1">
         <v>600</v>
       </c>
@@ -13885,7 +13885,7 @@
         <v>-1.03441713841682</v>
       </c>
     </row>
-    <row r="612" hidden="1" spans="1:6">
+    <row r="612" spans="1:6">
       <c r="A612" s="1">
         <v>611</v>
       </c>
@@ -13906,7 +13906,7 @@
         <v>27.7575398273146</v>
       </c>
     </row>
-    <row r="613" hidden="1" spans="1:6">
+    <row r="613" spans="1:6">
       <c r="A613" s="1">
         <v>612</v>
       </c>
@@ -13927,7 +13927,7 @@
         <v>4.9755576983146</v>
       </c>
     </row>
-    <row r="614" hidden="1" spans="1:6">
+    <row r="614" spans="1:6">
       <c r="A614" s="1">
         <v>613</v>
       </c>
@@ -13948,7 +13948,7 @@
         <v>1.59309611799096</v>
       </c>
     </row>
-    <row r="615" hidden="1" spans="1:6">
+    <row r="615" spans="1:6">
       <c r="A615" s="1">
         <v>614</v>
       </c>
@@ -13969,7 +13969,7 @@
         <v>0.535723337044759</v>
       </c>
     </row>
-    <row r="616" hidden="1" spans="1:6">
+    <row r="616" spans="1:6">
       <c r="A616" s="1">
         <v>615</v>
       </c>
@@ -13990,7 +13990,7 @@
         <v>0.0976159264257997</v>
       </c>
     </row>
-    <row r="617" hidden="1" spans="1:6">
+    <row r="617" spans="1:6">
       <c r="A617" s="1">
         <v>616</v>
       </c>
@@ -14011,7 +14011,7 @@
         <v>-0.0523161579942559</v>
       </c>
     </row>
-    <row r="618" hidden="1" spans="1:6">
+    <row r="618" spans="1:6">
       <c r="A618" s="1">
         <v>617</v>
       </c>
@@ -14032,7 +14032,7 @@
         <v>-0.0284076854754556</v>
       </c>
     </row>
-    <row r="619" hidden="1" spans="1:6">
+    <row r="619" spans="1:6">
       <c r="A619" s="1">
         <v>618</v>
       </c>
@@ -14053,7 +14053,7 @@
         <v>-0.0665745061901027</v>
       </c>
     </row>
-    <row r="620" hidden="1" spans="1:6">
+    <row r="620" spans="1:6">
       <c r="A620" s="1">
         <v>619</v>
       </c>
@@ -14074,7 +14074,7 @@
         <v>-0.106117773184527</v>
       </c>
     </row>
-    <row r="621" hidden="1" spans="1:6">
+    <row r="621" spans="1:6">
       <c r="A621" s="1">
         <v>620</v>
       </c>
@@ -14095,7 +14095,7 @@
         <v>-30.5410735662057</v>
       </c>
     </row>
-    <row r="622" hidden="1" spans="1:6">
+    <row r="622" spans="1:6">
       <c r="A622" s="1">
         <v>621</v>
       </c>
@@ -14116,7 +14116,7 @@
         <v>37.7364463791957</v>
       </c>
     </row>
-    <row r="623" hidden="1" spans="1:6">
+    <row r="623" spans="1:6">
       <c r="A623" s="1">
         <v>622</v>
       </c>
@@ -14137,7 +14137,7 @@
         <v>7.62123011972738</v>
       </c>
     </row>
-    <row r="624" hidden="1" spans="1:6">
+    <row r="624" spans="1:6">
       <c r="A624" s="1">
         <v>623</v>
       </c>
@@ -14158,7 +14158,7 @@
         <v>2.46330129234028</v>
       </c>
     </row>
-    <row r="625" hidden="1" spans="1:6">
+    <row r="625" spans="1:6">
       <c r="A625" s="1">
         <v>624</v>
       </c>
@@ -14179,7 +14179,7 @@
         <v>0.967148823200674</v>
       </c>
     </row>
-    <row r="626" hidden="1" spans="1:6">
+    <row r="626" spans="1:6">
       <c r="A626" s="1">
         <v>625</v>
       </c>
@@ -14200,7 +14200,7 @@
         <v>0.384415144863129</v>
       </c>
     </row>
-    <row r="627" hidden="1" spans="1:6">
+    <row r="627" spans="1:6">
       <c r="A627" s="1">
         <v>626</v>
       </c>
@@ -14221,7 +14221,7 @@
         <v>0.097958258778579</v>
       </c>
     </row>
-    <row r="628" hidden="1" spans="1:6">
+    <row r="628" spans="1:6">
       <c r="A628" s="1">
         <v>627</v>
       </c>
@@ -14242,7 +14242,7 @@
         <v>-0.0459401078455751</v>
       </c>
     </row>
-    <row r="629" hidden="1" spans="1:6">
+    <row r="629" spans="1:6">
       <c r="A629" s="1">
         <v>628</v>
       </c>
@@ -14263,7 +14263,7 @@
         <v>-0.117822197546167</v>
       </c>
     </row>
-    <row r="630" hidden="1" spans="1:6">
+    <row r="630" spans="1:6">
       <c r="A630" s="1">
         <v>629</v>
       </c>
@@ -14284,7 +14284,7 @@
         <v>-0.143923877486965</v>
       </c>
     </row>
-    <row r="631" hidden="1" spans="1:6">
+    <row r="631" spans="1:6">
       <c r="A631" s="1">
         <v>630</v>
       </c>
@@ -14305,7 +14305,7 @@
         <v>-40.5130662366767</v>
       </c>
     </row>
-    <row r="632" hidden="1" spans="1:6">
+    <row r="632" spans="1:6">
       <c r="A632" s="1">
         <v>631</v>
       </c>
@@ -14326,7 +14326,7 @@
         <v>39.4588913247546</v>
       </c>
     </row>
-    <row r="633" hidden="1" spans="1:6">
+    <row r="633" spans="1:6">
       <c r="A633" s="1">
         <v>632</v>
       </c>
@@ -14347,7 +14347,7 @@
         <v>15.2677036487679</v>
       </c>
     </row>
-    <row r="634" hidden="1" spans="1:6">
+    <row r="634" spans="1:6">
       <c r="A634" s="1">
         <v>633</v>
       </c>
@@ -14368,7 +14368,7 @@
         <v>6.58559965018158</v>
       </c>
     </row>
-    <row r="635" hidden="1" spans="1:6">
+    <row r="635" spans="1:6">
       <c r="A635" s="1">
         <v>634</v>
       </c>
@@ -14389,7 +14389,7 @@
         <v>2.26890787371093</v>
       </c>
     </row>
-    <row r="636" hidden="1" spans="1:6">
+    <row r="636" spans="1:6">
       <c r="A636" s="1">
         <v>635</v>
       </c>
@@ -14410,7 +14410,7 @@
         <v>0.875105424631987</v>
       </c>
     </row>
-    <row r="637" hidden="1" spans="1:6">
+    <row r="637" spans="1:6">
       <c r="A637" s="1">
         <v>636</v>
       </c>
@@ -14431,7 +14431,7 @@
         <v>0.377433807929036</v>
       </c>
     </row>
-    <row r="638" hidden="1" spans="1:6">
+    <row r="638" spans="1:6">
       <c r="A638" s="1">
         <v>637</v>
       </c>
@@ -14452,7 +14452,7 @@
         <v>0.150145762510993</v>
       </c>
     </row>
-    <row r="639" hidden="1" spans="1:6">
+    <row r="639" spans="1:6">
       <c r="A639" s="1">
         <v>638</v>
       </c>
@@ -14473,7 +14473,7 @@
         <v>0.0372189557864115</v>
       </c>
     </row>
-    <row r="640" hidden="1" spans="1:6">
+    <row r="640" spans="1:6">
       <c r="A640" s="1">
         <v>639</v>
       </c>
@@ -14494,7 +14494,7 @@
         <v>-0.0192708578704058</v>
       </c>
     </row>
-    <row r="641" hidden="1" spans="1:6">
+    <row r="641" spans="1:6">
       <c r="A641" s="1">
         <v>640</v>
       </c>
@@ -14515,7 +14515,7 @@
         <v>-48.8197021637355</v>
       </c>
     </row>
-    <row r="642" hidden="1" spans="1:6">
+    <row r="642" spans="1:6">
       <c r="A642" s="1">
         <v>641</v>
       </c>
@@ -14536,7 +14536,7 @@
         <v>37.2214634838365</v>
       </c>
     </row>
-    <row r="643" hidden="1" spans="1:6">
+    <row r="643" spans="1:6">
       <c r="A643" s="1">
         <v>642</v>
       </c>
@@ -14557,7 +14557,7 @@
         <v>14.8860551207266</v>
       </c>
     </row>
-    <row r="644" hidden="1" spans="1:6">
+    <row r="644" spans="1:6">
       <c r="A644" s="1">
         <v>643</v>
       </c>
@@ -14578,7 +14578,7 @@
         <v>7.86252171915663</v>
       </c>
     </row>
-    <row r="645" hidden="1" spans="1:6">
+    <row r="645" spans="1:6">
       <c r="A645" s="1">
         <v>644</v>
       </c>
@@ -14599,7 +14599,7 @@
         <v>4.00080581516581</v>
       </c>
     </row>
-    <row r="646" hidden="1" spans="1:6">
+    <row r="646" spans="1:6">
       <c r="A646" s="1">
         <v>645</v>
       </c>
@@ -14620,7 +14620,7 @@
         <v>1.98883742667953</v>
       </c>
     </row>
-    <row r="647" hidden="1" spans="1:6">
+    <row r="647" spans="1:6">
       <c r="A647" s="1">
         <v>646</v>
       </c>
@@ -14641,7 +14641,7 @@
         <v>0.866182105509487</v>
       </c>
     </row>
-    <row r="648" hidden="1" spans="1:6">
+    <row r="648" spans="1:6">
       <c r="A648" s="1">
         <v>647</v>
       </c>
@@ -14662,7 +14662,7 @@
         <v>0.383403147433918</v>
       </c>
     </row>
-    <row r="649" hidden="1" spans="1:6">
+    <row r="649" spans="1:6">
       <c r="A649" s="1">
         <v>648</v>
       </c>
@@ -14683,7 +14683,7 @@
         <v>0.182450618437935</v>
       </c>
     </row>
-    <row r="650" hidden="1" spans="1:6">
+    <row r="650" spans="1:6">
       <c r="A650" s="1">
         <v>649</v>
       </c>
@@ -14704,7 +14704,7 @@
         <v>0.0859686967322547</v>
       </c>
     </row>
-    <row r="651" hidden="1" spans="1:6">
+    <row r="651" spans="1:6">
       <c r="A651" s="1">
         <v>650</v>
       </c>
@@ -14935,7 +14935,7 @@
         <v>0.588020376705699</v>
       </c>
     </row>
-    <row r="662" hidden="1" spans="1:6">
+    <row r="662" spans="1:6">
       <c r="A662" s="1">
         <v>661</v>
       </c>
@@ -14956,7 +14956,7 @@
         <v>22.9707839704564</v>
       </c>
     </row>
-    <row r="663" hidden="1" spans="1:6">
+    <row r="663" spans="1:6">
       <c r="A663" s="1">
         <v>662</v>
       </c>
@@ -14977,7 +14977,7 @@
         <v>4.63975457765329</v>
       </c>
     </row>
-    <row r="664" hidden="1" spans="1:6">
+    <row r="664" spans="1:6">
       <c r="A664" s="1">
         <v>663</v>
       </c>
@@ -14998,7 +14998,7 @@
         <v>1.50425896872634</v>
       </c>
     </row>
-    <row r="665" hidden="1" spans="1:6">
+    <row r="665" spans="1:6">
       <c r="A665" s="1">
         <v>664</v>
       </c>
@@ -15019,7 +15019,7 @@
         <v>0.535370040880669</v>
       </c>
     </row>
-    <row r="666" hidden="1" spans="1:6">
+    <row r="666" spans="1:6">
       <c r="A666" s="1">
         <v>665</v>
       </c>
@@ -15040,7 +15040,7 @@
         <v>0.19482424461121</v>
       </c>
     </row>
-    <row r="667" hidden="1" spans="1:6">
+    <row r="667" spans="1:6">
       <c r="A667" s="1">
         <v>666</v>
       </c>
@@ -15061,7 +15061,7 @@
         <v>0.138426424951211</v>
       </c>
     </row>
-    <row r="668" hidden="1" spans="1:6">
+    <row r="668" spans="1:6">
       <c r="A668" s="1">
         <v>667</v>
       </c>
@@ -15082,7 +15082,7 @@
         <v>0.0654339439745558</v>
       </c>
     </row>
-    <row r="669" hidden="1" spans="1:6">
+    <row r="669" spans="1:6">
       <c r="A669" s="1">
         <v>668</v>
       </c>
@@ -15103,7 +15103,7 @@
         <v>0.0103414356568969</v>
       </c>
     </row>
-    <row r="670" hidden="1" spans="1:6">
+    <row r="670" spans="1:6">
       <c r="A670" s="1">
         <v>669</v>
       </c>
@@ -15124,7 +15124,7 @@
         <v>-0.0454509780025021</v>
       </c>
     </row>
-    <row r="671" hidden="1" spans="1:6">
+    <row r="671" spans="1:6">
       <c r="A671" s="1">
         <v>670</v>
       </c>
@@ -15145,7 +15145,7 @@
         <v>-27.6540156538714</v>
       </c>
     </row>
-    <row r="672" hidden="1" spans="1:6">
+    <row r="672" spans="1:6">
       <c r="A672" s="1">
         <v>671</v>
       </c>
@@ -15166,7 +15166,7 @@
         <v>37.8264785289196</v>
       </c>
     </row>
-    <row r="673" hidden="1" spans="1:6">
+    <row r="673" spans="1:6">
       <c r="A673" s="1">
         <v>672</v>
       </c>
@@ -15187,7 +15187,7 @@
         <v>11.1395043318667</v>
       </c>
     </row>
-    <row r="674" hidden="1" spans="1:6">
+    <row r="674" spans="1:6">
       <c r="A674" s="1">
         <v>673</v>
       </c>
@@ -15208,7 +15208,7 @@
         <v>2.90274127911055</v>
       </c>
     </row>
-    <row r="675" hidden="1" spans="1:6">
+    <row r="675" spans="1:6">
       <c r="A675" s="1">
         <v>674</v>
       </c>
@@ -15229,7 +15229,7 @@
         <v>1.34247097997901</v>
       </c>
     </row>
-    <row r="676" hidden="1" spans="1:6">
+    <row r="676" spans="1:6">
       <c r="A676" s="1">
         <v>675</v>
       </c>
@@ -15250,7 +15250,7 @@
         <v>0.647389059439619</v>
       </c>
     </row>
-    <row r="677" hidden="1" spans="1:6">
+    <row r="677" spans="1:6">
       <c r="A677" s="1">
         <v>676</v>
       </c>
@@ -15271,7 +15271,7 @@
         <v>0.298446813976817</v>
       </c>
     </row>
-    <row r="678" hidden="1" spans="1:6">
+    <row r="678" spans="1:6">
       <c r="A678" s="1">
         <v>677</v>
       </c>
@@ -15292,7 +15292,7 @@
         <v>0.106734968943927</v>
       </c>
     </row>
-    <row r="679" hidden="1" spans="1:6">
+    <row r="679" spans="1:6">
       <c r="A679" s="1">
         <v>678</v>
       </c>
@@ -15313,7 +15313,7 @@
         <v>0.00891057659000573</v>
       </c>
     </row>
-    <row r="680" hidden="1" spans="1:6">
+    <row r="680" spans="1:6">
       <c r="A680" s="1">
         <v>679</v>
       </c>
@@ -15334,7 +15334,7 @@
         <v>-0.0550433629266711</v>
       </c>
     </row>
-    <row r="681" hidden="1" spans="1:6">
+    <row r="681" spans="1:6">
       <c r="A681" s="1">
         <v>680</v>
       </c>
@@ -15355,7 +15355,7 @@
         <v>-42.0203748232471</v>
       </c>
     </row>
-    <row r="682" hidden="1" spans="1:6">
+    <row r="682" spans="1:6">
       <c r="A682" s="1">
         <v>681</v>
       </c>
@@ -15376,7 +15376,7 @@
         <v>38.5912941817866</v>
       </c>
     </row>
-    <row r="683" hidden="1" spans="1:6">
+    <row r="683" spans="1:6">
       <c r="A683" s="1">
         <v>682</v>
       </c>
@@ -15397,7 +15397,7 @@
         <v>13.6099761307152</v>
       </c>
     </row>
-    <row r="684" hidden="1" spans="1:6">
+    <row r="684" spans="1:6">
       <c r="A684" s="1">
         <v>683</v>
       </c>
@@ -15418,7 +15418,7 @@
         <v>3.81962743550171</v>
       </c>
     </row>
-    <row r="685" hidden="1" spans="1:6">
+    <row r="685" spans="1:6">
       <c r="A685" s="1">
         <v>684</v>
       </c>
@@ -15439,7 +15439,7 @@
         <v>1.55139787581984</v>
       </c>
     </row>
-    <row r="686" hidden="1" spans="1:6">
+    <row r="686" spans="1:6">
       <c r="A686" s="1">
         <v>685</v>
       </c>
@@ -15460,7 +15460,7 @@
         <v>1.18584757552276</v>
       </c>
     </row>
-    <row r="687" hidden="1" spans="1:6">
+    <row r="687" spans="1:6">
       <c r="A687" s="1">
         <v>686</v>
       </c>
@@ -15481,7 +15481,7 @@
         <v>-0.11702756179397</v>
       </c>
     </row>
-    <row r="688" hidden="1" spans="1:6">
+    <row r="688" spans="1:6">
       <c r="A688" s="1">
         <v>687</v>
       </c>
@@ -15502,7 +15502,7 @@
         <v>0.129496316825962</v>
       </c>
     </row>
-    <row r="689" hidden="1" spans="1:6">
+    <row r="689" spans="1:6">
       <c r="A689" s="1">
         <v>688</v>
       </c>
@@ -15523,7 +15523,7 @@
         <v>0.0179842689624441</v>
       </c>
     </row>
-    <row r="690" hidden="1" spans="1:6">
+    <row r="690" spans="1:6">
       <c r="A690" s="1">
         <v>689</v>
       </c>
@@ -15544,7 +15544,7 @@
         <v>-0.035659035055908</v>
       </c>
     </row>
-    <row r="691" hidden="1" spans="1:6">
+    <row r="691" spans="1:6">
       <c r="A691" s="1">
         <v>690</v>
       </c>
@@ -15565,7 +15565,7 @@
         <v>-45.2165571901596</v>
       </c>
     </row>
-    <row r="692" hidden="1" spans="1:6">
+    <row r="692" spans="1:6">
       <c r="A692" s="1">
         <v>691</v>
       </c>
@@ -15586,7 +15586,7 @@
         <v>37.7410593593554</v>
       </c>
     </row>
-    <row r="693" hidden="1" spans="1:6">
+    <row r="693" spans="1:6">
       <c r="A693" s="1">
         <v>692</v>
       </c>
@@ -15607,7 +15607,7 @@
         <v>15.2793917510713</v>
       </c>
     </row>
-    <row r="694" hidden="1" spans="1:6">
+    <row r="694" spans="1:6">
       <c r="A694" s="1">
         <v>693</v>
       </c>
@@ -15628,7 +15628,7 @@
         <v>7.73040972973139</v>
       </c>
     </row>
-    <row r="695" hidden="1" spans="1:6">
+    <row r="695" spans="1:6">
       <c r="A695" s="1">
         <v>694</v>
       </c>
@@ -15649,7 +15649,7 @@
         <v>4.09468253542103</v>
       </c>
     </row>
-    <row r="696" hidden="1" spans="1:6">
+    <row r="696" spans="1:6">
       <c r="A696" s="1">
         <v>695</v>
       </c>
@@ -15670,7 +15670,7 @@
         <v>2.22136248027168</v>
       </c>
     </row>
-    <row r="697" hidden="1" spans="1:6">
+    <row r="697" spans="1:6">
       <c r="A697" s="1">
         <v>696</v>
       </c>
@@ -15691,7 +15691,7 @@
         <v>1.180085125846</v>
       </c>
     </row>
-    <row r="698" hidden="1" spans="1:6">
+    <row r="698" spans="1:6">
       <c r="A698" s="1">
         <v>697</v>
       </c>
@@ -15712,7 +15712,7 @@
         <v>0.539984199063221</v>
       </c>
     </row>
-    <row r="699" hidden="1" spans="1:6">
+    <row r="699" spans="1:6">
       <c r="A699" s="1">
         <v>698</v>
       </c>
@@ -15733,7 +15733,7 @@
         <v>0.248866083843726</v>
       </c>
     </row>
-    <row r="700" hidden="1" spans="1:6">
+    <row r="700" spans="1:6">
       <c r="A700" s="1">
         <v>699</v>
       </c>
@@ -15754,7 +15754,7 @@
         <v>0.125680315849001</v>
       </c>
     </row>
-    <row r="701" hidden="1" spans="1:6">
+    <row r="701" spans="1:6">
       <c r="A701" s="1">
         <v>700</v>
       </c>
@@ -15985,7 +15985,7 @@
         <v>8.54639016102031</v>
       </c>
     </row>
-    <row r="712" hidden="1" spans="1:6">
+    <row r="712" spans="1:6">
       <c r="A712" s="1">
         <v>711</v>
       </c>
@@ -16006,7 +16006,7 @@
         <v>26.3373220919649</v>
       </c>
     </row>
-    <row r="713" hidden="1" spans="1:6">
+    <row r="713" spans="1:6">
       <c r="A713" s="1">
         <v>712</v>
       </c>
@@ -16027,7 +16027,7 @@
         <v>4.84819596924881</v>
       </c>
     </row>
-    <row r="714" hidden="1" spans="1:6">
+    <row r="714" spans="1:6">
       <c r="A714" s="1">
         <v>713</v>
       </c>
@@ -16048,7 +16048,7 @@
         <v>1.66906023418835</v>
       </c>
     </row>
-    <row r="715" hidden="1" spans="1:6">
+    <row r="715" spans="1:6">
       <c r="A715" s="1">
         <v>714</v>
       </c>
@@ -16069,7 +16069,7 @@
         <v>0.620253635176885</v>
       </c>
     </row>
-    <row r="716" hidden="1" spans="1:6">
+    <row r="716" spans="1:6">
       <c r="A716" s="1">
         <v>715</v>
       </c>
@@ -16090,7 +16090,7 @@
         <v>0.153615485434531</v>
       </c>
     </row>
-    <row r="717" hidden="1" spans="1:6">
+    <row r="717" spans="1:6">
       <c r="A717" s="1">
         <v>716</v>
       </c>
@@ -16111,7 +16111,7 @@
         <v>-0.035159393448518</v>
       </c>
     </row>
-    <row r="718" hidden="1" spans="1:6">
+    <row r="718" spans="1:6">
       <c r="A718" s="1">
         <v>717</v>
       </c>
@@ -16132,7 +16132,7 @@
         <v>-0.170849175244861</v>
       </c>
     </row>
-    <row r="719" hidden="1" spans="1:6">
+    <row r="719" spans="1:6">
       <c r="A719" s="1">
         <v>718</v>
       </c>
@@ -16153,7 +16153,7 @@
         <v>-0.192020263008064</v>
       </c>
     </row>
-    <row r="720" hidden="1" spans="1:6">
+    <row r="720" spans="1:6">
       <c r="A720" s="1">
         <v>719</v>
       </c>
@@ -16174,7 +16174,7 @@
         <v>-0.224437471578684</v>
       </c>
     </row>
-    <row r="721" hidden="1" spans="1:6">
+    <row r="721" spans="1:6">
       <c r="A721" s="1">
         <v>720</v>
       </c>
@@ -16195,7 +16195,7 @@
         <v>-29.8200178697522</v>
       </c>
     </row>
-    <row r="722" hidden="1" spans="1:6">
+    <row r="722" spans="1:6">
       <c r="A722" s="1">
         <v>721</v>
       </c>
@@ -16216,7 +16216,7 @@
         <v>35.3971535389012</v>
       </c>
     </row>
-    <row r="723" hidden="1" spans="1:6">
+    <row r="723" spans="1:6">
       <c r="A723" s="1">
         <v>722</v>
       </c>
@@ -16237,7 +16237,7 @@
         <v>6.66129551308354</v>
       </c>
     </row>
-    <row r="724" hidden="1" spans="1:6">
+    <row r="724" spans="1:6">
       <c r="A724" s="1">
         <v>723</v>
       </c>
@@ -16258,7 +16258,7 @@
         <v>2.47996775896022</v>
       </c>
     </row>
-    <row r="725" hidden="1" spans="1:6">
+    <row r="725" spans="1:6">
       <c r="A725" s="1">
         <v>724</v>
       </c>
@@ -16279,7 +16279,7 @@
         <v>1.12693463911364</v>
       </c>
     </row>
-    <row r="726" hidden="1" spans="1:6">
+    <row r="726" spans="1:6">
       <c r="A726" s="1">
         <v>725</v>
       </c>
@@ -16300,7 +16300,7 @@
         <v>0.492675035475551</v>
       </c>
     </row>
-    <row r="727" hidden="1" spans="1:6">
+    <row r="727" spans="1:6">
       <c r="A727" s="1">
         <v>726</v>
       </c>
@@ -16321,7 +16321,7 @@
         <v>0.287014733243214</v>
       </c>
     </row>
-    <row r="728" hidden="1" spans="1:6">
+    <row r="728" spans="1:6">
       <c r="A728" s="1">
         <v>727</v>
       </c>
@@ -16342,7 +16342,7 @@
         <v>0.089635039119377</v>
       </c>
     </row>
-    <row r="729" hidden="1" spans="1:6">
+    <row r="729" spans="1:6">
       <c r="A729" s="1">
         <v>728</v>
       </c>
@@ -16363,7 +16363,7 @@
         <v>-0.0177576728715169</v>
       </c>
     </row>
-    <row r="730" hidden="1" spans="1:6">
+    <row r="730" spans="1:6">
       <c r="A730" s="1">
         <v>729</v>
       </c>
@@ -16384,7 +16384,7 @@
         <v>-0.0773155713996499</v>
       </c>
     </row>
-    <row r="731" hidden="1" spans="1:6">
+    <row r="731" spans="1:6">
       <c r="A731" s="1">
         <v>730</v>
       </c>
@@ -16405,7 +16405,7 @@
         <v>-38.7461628391983</v>
       </c>
     </row>
-    <row r="732" hidden="1" spans="1:6">
+    <row r="732" spans="1:6">
       <c r="A732" s="1">
         <v>731</v>
       </c>
@@ -16426,7 +16426,7 @@
         <v>39.660443817009</v>
       </c>
     </row>
-    <row r="733" hidden="1" spans="1:6">
+    <row r="733" spans="1:6">
       <c r="A733" s="1">
         <v>732</v>
       </c>
@@ -16447,7 +16447,7 @@
         <v>14.9743033241091</v>
       </c>
     </row>
-    <row r="734" hidden="1" spans="1:6">
+    <row r="734" spans="1:6">
       <c r="A734" s="1">
         <v>733</v>
       </c>
@@ -16468,7 +16468,7 @@
         <v>4.82606805788414</v>
       </c>
     </row>
-    <row r="735" hidden="1" spans="1:6">
+    <row r="735" spans="1:6">
       <c r="A735" s="1">
         <v>734</v>
       </c>
@@ -16489,7 +16489,7 @@
         <v>1.97700725234802</v>
       </c>
     </row>
-    <row r="736" hidden="1" spans="1:6">
+    <row r="736" spans="1:6">
       <c r="A736" s="1">
         <v>735</v>
       </c>
@@ -16510,7 +16510,7 @@
         <v>1.00591919475847</v>
       </c>
     </row>
-    <row r="737" hidden="1" spans="1:6">
+    <row r="737" spans="1:6">
       <c r="A737" s="1">
         <v>736</v>
       </c>
@@ -16531,7 +16531,7 @@
         <v>0.530683481790087</v>
       </c>
     </row>
-    <row r="738" hidden="1" spans="1:6">
+    <row r="738" spans="1:6">
       <c r="A738" s="1">
         <v>737</v>
       </c>
@@ -16552,7 +16552,7 @@
         <v>0.273708708887682</v>
       </c>
     </row>
-    <row r="739" hidden="1" spans="1:6">
+    <row r="739" spans="1:6">
       <c r="A739" s="1">
         <v>738</v>
       </c>
@@ -16573,7 +16573,7 @@
         <v>0.130008732054183</v>
       </c>
     </row>
-    <row r="740" hidden="1" spans="1:6">
+    <row r="740" spans="1:6">
       <c r="A740" s="1">
         <v>739</v>
       </c>
@@ -16594,7 +16594,7 @@
         <v>0.0503102682075917</v>
       </c>
     </row>
-    <row r="741" hidden="1" spans="1:6">
+    <row r="741" spans="1:6">
       <c r="A741" s="1">
         <v>740</v>
       </c>
@@ -16615,7 +16615,7 @@
         <v>-45.8322299511194</v>
       </c>
     </row>
-    <row r="742" hidden="1" spans="1:6">
+    <row r="742" spans="1:6">
       <c r="A742" s="1">
         <v>741</v>
       </c>
@@ -16636,7 +16636,7 @@
         <v>36.5416717439871</v>
       </c>
     </row>
-    <row r="743" hidden="1" spans="1:6">
+    <row r="743" spans="1:6">
       <c r="A743" s="1">
         <v>742</v>
       </c>
@@ -16657,7 +16657,7 @@
         <v>14.5812964056027</v>
       </c>
     </row>
-    <row r="744" hidden="1" spans="1:6">
+    <row r="744" spans="1:6">
       <c r="A744" s="1">
         <v>743</v>
       </c>
@@ -16678,7 +16678,7 @@
         <v>6.05399279175475</v>
       </c>
     </row>
-    <row r="745" hidden="1" spans="1:6">
+    <row r="745" spans="1:6">
       <c r="A745" s="1">
         <v>744</v>
       </c>
@@ -16699,7 +16699,7 @@
         <v>2.1182345027948</v>
       </c>
     </row>
-    <row r="746" hidden="1" spans="1:6">
+    <row r="746" spans="1:6">
       <c r="A746" s="1">
         <v>745</v>
       </c>
@@ -16720,7 +16720,7 @@
         <v>1.01311033498641</v>
       </c>
     </row>
-    <row r="747" hidden="1" spans="1:6">
+    <row r="747" spans="1:6">
       <c r="A747" s="1">
         <v>746</v>
       </c>
@@ -16741,7 +16741,7 @@
         <v>0.522390575014926</v>
       </c>
     </row>
-    <row r="748" hidden="1" spans="1:6">
+    <row r="748" spans="1:6">
       <c r="A748" s="1">
         <v>747</v>
       </c>
@@ -16762,7 +16762,7 @@
         <v>0.259576888400331</v>
       </c>
     </row>
-    <row r="749" hidden="1" spans="1:6">
+    <row r="749" spans="1:6">
       <c r="A749" s="1">
         <v>748</v>
       </c>
@@ -16783,7 +16783,7 @@
         <v>0.123877261358885</v>
       </c>
     </row>
-    <row r="750" hidden="1" spans="1:6">
+    <row r="750" spans="1:6">
       <c r="A750" s="1">
         <v>749</v>
       </c>
@@ -16804,7 +16804,7 @@
         <v>0.0407540302797379</v>
       </c>
     </row>
-    <row r="751" hidden="1" spans="1:6">
+    <row r="751" spans="1:6">
       <c r="A751" s="1">
         <v>750</v>
       </c>
@@ -17035,7 +17035,7 @@
         <v>4.37722612493489</v>
       </c>
     </row>
-    <row r="762" hidden="1" spans="1:6">
+    <row r="762" spans="1:6">
       <c r="A762" s="1">
         <v>761</v>
       </c>
@@ -17056,7 +17056,7 @@
         <v>20.1168146155039</v>
       </c>
     </row>
-    <row r="763" hidden="1" spans="1:6">
+    <row r="763" spans="1:6">
       <c r="A763" s="1">
         <v>762</v>
       </c>
@@ -17077,7 +17077,7 @@
         <v>4.19227325877296</v>
       </c>
     </row>
-    <row r="764" hidden="1" spans="1:6">
+    <row r="764" spans="1:6">
       <c r="A764" s="1">
         <v>763</v>
       </c>
@@ -17098,7 +17098,7 @@
         <v>1.5113409063657</v>
       </c>
     </row>
-    <row r="765" hidden="1" spans="1:6">
+    <row r="765" spans="1:6">
       <c r="A765" s="1">
         <v>764</v>
       </c>
@@ -17119,7 +17119,7 @@
         <v>0.466357273314119</v>
       </c>
     </row>
-    <row r="766" hidden="1" spans="1:6">
+    <row r="766" spans="1:6">
       <c r="A766" s="1">
         <v>765</v>
       </c>
@@ -17140,7 +17140,7 @@
         <v>0.0468128258791101</v>
       </c>
     </row>
-    <row r="767" hidden="1" spans="1:6">
+    <row r="767" spans="1:6">
       <c r="A767" s="1">
         <v>766</v>
       </c>
@@ -17161,7 +17161,7 @@
         <v>-0.0976704313374761</v>
       </c>
     </row>
-    <row r="768" hidden="1" spans="1:6">
+    <row r="768" spans="1:6">
       <c r="A768" s="1">
         <v>767</v>
       </c>
@@ -17182,7 +17182,7 @@
         <v>-0.211723726212636</v>
       </c>
     </row>
-    <row r="769" hidden="1" spans="1:6">
+    <row r="769" spans="1:6">
       <c r="A769" s="1">
         <v>768</v>
       </c>
@@ -17203,7 +17203,7 @@
         <v>-0.239210951468633</v>
       </c>
     </row>
-    <row r="770" hidden="1" spans="1:6">
+    <row r="770" spans="1:6">
       <c r="A770" s="1">
         <v>769</v>
       </c>
@@ -17224,7 +17224,7 @@
         <v>-0.28286144480541</v>
       </c>
     </row>
-    <row r="771" hidden="1" spans="1:6">
+    <row r="771" spans="1:6">
       <c r="A771" s="1">
         <v>770</v>
       </c>
@@ -17245,7 +17245,7 @@
         <v>-25.1126190846335</v>
       </c>
     </row>
-    <row r="772" hidden="1" spans="1:6">
+    <row r="772" spans="1:6">
       <c r="A772" s="1">
         <v>771</v>
       </c>
@@ -17266,7 +17266,7 @@
         <v>38.147396692942</v>
       </c>
     </row>
-    <row r="773" hidden="1" spans="1:6">
+    <row r="773" spans="1:6">
       <c r="A773" s="1">
         <v>772</v>
       </c>
@@ -17287,7 +17287,7 @@
         <v>7.45468172211277</v>
       </c>
     </row>
-    <row r="774" hidden="1" spans="1:6">
+    <row r="774" spans="1:6">
       <c r="A774" s="1">
         <v>773</v>
       </c>
@@ -17308,7 +17308,7 @@
         <v>2.66551939757371</v>
       </c>
     </row>
-    <row r="775" hidden="1" spans="1:6">
+    <row r="775" spans="1:6">
       <c r="A775" s="1">
         <v>774</v>
       </c>
@@ -17329,7 +17329,7 @@
         <v>1.1980625060244</v>
       </c>
     </row>
-    <row r="776" hidden="1" spans="1:6">
+    <row r="776" spans="1:6">
       <c r="A776" s="1">
         <v>775</v>
       </c>
@@ -17350,7 +17350,7 @@
         <v>0.556987516072801</v>
       </c>
     </row>
-    <row r="777" hidden="1" spans="1:6">
+    <row r="777" spans="1:6">
       <c r="A777" s="1">
         <v>776</v>
       </c>
@@ -17371,7 +17371,7 @@
         <v>0.237252167516407</v>
       </c>
     </row>
-    <row r="778" hidden="1" spans="1:6">
+    <row r="778" spans="1:6">
       <c r="A778" s="1">
         <v>777</v>
       </c>
@@ -17392,7 +17392,7 @@
         <v>0.0682095515584867</v>
       </c>
     </row>
-    <row r="779" hidden="1" spans="1:6">
+    <row r="779" spans="1:6">
       <c r="A779" s="1">
         <v>778</v>
       </c>
@@ -17413,7 +17413,7 @@
         <v>-0.0859770550822499</v>
       </c>
     </row>
-    <row r="780" hidden="1" spans="1:6">
+    <row r="780" spans="1:6">
       <c r="A780" s="1">
         <v>779</v>
       </c>
@@ -17434,7 +17434,7 @@
         <v>-0.112909224053286</v>
       </c>
     </row>
-    <row r="781" hidden="1" spans="1:6">
+    <row r="781" spans="1:6">
       <c r="A781" s="1">
         <v>780</v>
       </c>
@@ -17455,7 +17455,7 @@
         <v>-39.7770932151646</v>
       </c>
     </row>
-    <row r="782" hidden="1" spans="1:6">
+    <row r="782" spans="1:6">
       <c r="A782" s="1">
         <v>781</v>
       </c>
@@ -17476,7 +17476,7 @@
         <v>37.5794960202363</v>
       </c>
     </row>
-    <row r="783" hidden="1" spans="1:6">
+    <row r="783" spans="1:6">
       <c r="A783" s="1">
         <v>782</v>
       </c>
@@ -17497,7 +17497,7 @@
         <v>9.83979098945798</v>
       </c>
     </row>
-    <row r="784" hidden="1" spans="1:6">
+    <row r="784" spans="1:6">
       <c r="A784" s="1">
         <v>783</v>
       </c>
@@ -17518,7 +17518,7 @@
         <v>3.14704850979331</v>
       </c>
     </row>
-    <row r="785" hidden="1" spans="1:6">
+    <row r="785" spans="1:6">
       <c r="A785" s="1">
         <v>784</v>
       </c>
@@ -17539,7 +17539,7 @@
         <v>1.46027238439275</v>
       </c>
     </row>
-    <row r="786" hidden="1" spans="1:6">
+    <row r="786" spans="1:6">
       <c r="A786" s="1">
         <v>785</v>
       </c>
@@ -17560,7 +17560,7 @@
         <v>0.724899190626751</v>
       </c>
     </row>
-    <row r="787" hidden="1" spans="1:6">
+    <row r="787" spans="1:6">
       <c r="A787" s="1">
         <v>786</v>
       </c>
@@ -17581,7 +17581,7 @@
         <v>0.354555394787736</v>
       </c>
     </row>
-    <row r="788" hidden="1" spans="1:6">
+    <row r="788" spans="1:6">
       <c r="A788" s="1">
         <v>787</v>
       </c>
@@ -17602,7 +17602,7 @@
         <v>0.202100052903599</v>
       </c>
     </row>
-    <row r="789" hidden="1" spans="1:6">
+    <row r="789" spans="1:6">
       <c r="A789" s="1">
         <v>788</v>
       </c>
@@ -17623,7 +17623,7 @@
         <v>0.153638808547984</v>
       </c>
     </row>
-    <row r="790" hidden="1" spans="1:6">
+    <row r="790" spans="1:6">
       <c r="A790" s="1">
         <v>789</v>
       </c>
@@ -17644,7 +17644,7 @@
         <v>0.0562062992646674</v>
       </c>
     </row>
-    <row r="791" hidden="1" spans="1:6">
+    <row r="791" spans="1:6">
       <c r="A791" s="1">
         <v>790</v>
       </c>
@@ -17665,7 +17665,7 @@
         <v>-42.0512271080845</v>
       </c>
     </row>
-    <row r="792" hidden="1" spans="1:6">
+    <row r="792" spans="1:6">
       <c r="A792" s="1">
         <v>791</v>
       </c>
@@ -17686,7 +17686,7 @@
         <v>37.6319486244926</v>
       </c>
     </row>
-    <row r="793" hidden="1" spans="1:6">
+    <row r="793" spans="1:6">
       <c r="A793" s="1">
         <v>792</v>
       </c>
@@ -17707,7 +17707,7 @@
         <v>15.3392939339966</v>
       </c>
     </row>
-    <row r="794" hidden="1" spans="1:6">
+    <row r="794" spans="1:6">
       <c r="A794" s="1">
         <v>793</v>
       </c>
@@ -17728,7 +17728,7 @@
         <v>7.05325440982596</v>
       </c>
     </row>
-    <row r="795" hidden="1" spans="1:6">
+    <row r="795" spans="1:6">
       <c r="A795" s="1">
         <v>794</v>
       </c>
@@ -17749,7 +17749,7 @@
         <v>2.59265484860857</v>
       </c>
     </row>
-    <row r="796" hidden="1" spans="1:6">
+    <row r="796" spans="1:6">
       <c r="A796" s="1">
         <v>795</v>
       </c>
@@ -17770,7 +17770,7 @@
         <v>0.917561124367371</v>
       </c>
     </row>
-    <row r="797" hidden="1" spans="1:6">
+    <row r="797" spans="1:6">
       <c r="A797" s="1">
         <v>796</v>
       </c>
@@ -17791,7 +17791,7 @@
         <v>0.987896000143332</v>
       </c>
     </row>
-    <row r="798" hidden="1" spans="1:6">
+    <row r="798" spans="1:6">
       <c r="A798" s="1">
         <v>797</v>
       </c>
@@ -17812,7 +17812,7 @@
         <v>0.343812417329818</v>
       </c>
     </row>
-    <row r="799" hidden="1" spans="1:6">
+    <row r="799" spans="1:6">
       <c r="A799" s="1">
         <v>798</v>
       </c>
@@ -17833,7 +17833,7 @@
         <v>0.324489232077153</v>
       </c>
     </row>
-    <row r="800" hidden="1" spans="1:6">
+    <row r="800" spans="1:6">
       <c r="A800" s="1">
         <v>799</v>
       </c>
@@ -17854,7 +17854,7 @@
         <v>0.139565163791877</v>
       </c>
     </row>
-    <row r="801" hidden="1" spans="1:6">
+    <row r="801" spans="1:6">
       <c r="A801" s="1">
         <v>800</v>
       </c>
@@ -18085,7 +18085,7 @@
         <v>9.96533538172579</v>
       </c>
     </row>
-    <row r="812" hidden="1" spans="1:6">
+    <row r="812" spans="1:6">
       <c r="A812" s="1">
         <v>811</v>
       </c>
@@ -18106,7 +18106,7 @@
         <v>23.2448478937984</v>
       </c>
     </row>
-    <row r="813" hidden="1" spans="1:6">
+    <row r="813" spans="1:6">
       <c r="A813" s="1">
         <v>812</v>
       </c>
@@ -18127,7 +18127,7 @@
         <v>4.52395306490162</v>
       </c>
     </row>
-    <row r="814" hidden="1" spans="1:6">
+    <row r="814" spans="1:6">
       <c r="A814" s="1">
         <v>813</v>
       </c>
@@ -18148,7 +18148,7 @@
         <v>1.68611294363983</v>
       </c>
     </row>
-    <row r="815" hidden="1" spans="1:6">
+    <row r="815" spans="1:6">
       <c r="A815" s="1">
         <v>814</v>
       </c>
@@ -18169,7 +18169,7 @@
         <v>0.608151493421342</v>
       </c>
     </row>
-    <row r="816" hidden="1" spans="1:6">
+    <row r="816" spans="1:6">
       <c r="A816" s="1">
         <v>815</v>
       </c>
@@ -18190,7 +18190,7 @@
         <v>0.245019080477678</v>
       </c>
     </row>
-    <row r="817" hidden="1" spans="1:6">
+    <row r="817" spans="1:6">
       <c r="A817" s="1">
         <v>816</v>
       </c>
@@ -18211,7 +18211,7 @@
         <v>-0.035695576420217</v>
       </c>
     </row>
-    <row r="818" hidden="1" spans="1:6">
+    <row r="818" spans="1:6">
       <c r="A818" s="1">
         <v>817</v>
       </c>
@@ -18232,7 +18232,7 @@
         <v>0.0569664991154289</v>
       </c>
     </row>
-    <row r="819" hidden="1" spans="1:6">
+    <row r="819" spans="1:6">
       <c r="A819" s="1">
         <v>818</v>
       </c>
@@ -18253,7 +18253,7 @@
         <v>0.0204453217937554</v>
       </c>
     </row>
-    <row r="820" hidden="1" spans="1:6">
+    <row r="820" spans="1:6">
       <c r="A820" s="1">
         <v>819</v>
       </c>
@@ -18274,7 +18274,7 @@
         <v>-0.0767621807798625</v>
       </c>
     </row>
-    <row r="821" hidden="1" spans="1:6">
+    <row r="821" spans="1:6">
       <c r="A821" s="1">
         <v>820</v>
       </c>
@@ -18295,7 +18295,7 @@
         <v>-25.419073086177</v>
       </c>
     </row>
-    <row r="822" hidden="1" spans="1:6">
+    <row r="822" spans="1:6">
       <c r="A822" s="1">
         <v>821</v>
       </c>
@@ -18316,7 +18316,7 @@
         <v>29.8966980226395</v>
       </c>
     </row>
-    <row r="823" hidden="1" spans="1:6">
+    <row r="823" spans="1:6">
       <c r="A823" s="1">
         <v>822</v>
       </c>
@@ -18337,7 +18337,7 @@
         <v>5.7722941202866</v>
       </c>
     </row>
-    <row r="824" hidden="1" spans="1:6">
+    <row r="824" spans="1:6">
       <c r="A824" s="1">
         <v>823</v>
       </c>
@@ -18358,7 +18358,7 @@
         <v>2.27819504322004</v>
       </c>
     </row>
-    <row r="825" hidden="1" spans="1:6">
+    <row r="825" spans="1:6">
       <c r="A825" s="1">
         <v>824</v>
       </c>
@@ -18379,7 +18379,7 @@
         <v>1.0114105762188</v>
       </c>
     </row>
-    <row r="826" hidden="1" spans="1:6">
+    <row r="826" spans="1:6">
       <c r="A826" s="1">
         <v>825</v>
       </c>
@@ -18400,7 +18400,7 @@
         <v>0.454318287899768</v>
       </c>
     </row>
-    <row r="827" hidden="1" spans="1:6">
+    <row r="827" spans="1:6">
       <c r="A827" s="1">
         <v>826</v>
       </c>
@@ -18421,7 +18421,7 @@
         <v>0.149925709442447</v>
       </c>
     </row>
-    <row r="828" hidden="1" spans="1:6">
+    <row r="828" spans="1:6">
       <c r="A828" s="1">
         <v>827</v>
       </c>
@@ -18442,7 +18442,7 @@
         <v>-0.0303195607710614</v>
       </c>
     </row>
-    <row r="829" hidden="1" spans="1:6">
+    <row r="829" spans="1:6">
       <c r="A829" s="1">
         <v>828</v>
       </c>
@@ -18463,7 +18463,7 @@
         <v>-0.109894131855572</v>
       </c>
     </row>
-    <row r="830" hidden="1" spans="1:6">
+    <row r="830" spans="1:6">
       <c r="A830" s="1">
         <v>829</v>
       </c>
@@ -18484,7 +18484,7 @@
         <v>-0.143658404720833</v>
       </c>
     </row>
-    <row r="831" hidden="1" spans="1:6">
+    <row r="831" spans="1:6">
       <c r="A831" s="1">
         <v>830</v>
       </c>
@@ -18505,7 +18505,7 @@
         <v>-34.3796312524629</v>
       </c>
     </row>
-    <row r="832" hidden="1" spans="1:6">
+    <row r="832" spans="1:6">
       <c r="A832" s="1">
         <v>831</v>
       </c>
@@ -18526,7 +18526,7 @@
         <v>38.405840851801</v>
       </c>
     </row>
-    <row r="833" hidden="1" spans="1:6">
+    <row r="833" spans="1:6">
       <c r="A833" s="1">
         <v>832</v>
       </c>
@@ -18547,7 +18547,7 @@
         <v>11.4355360153744</v>
       </c>
     </row>
-    <row r="834" hidden="1" spans="1:6">
+    <row r="834" spans="1:6">
       <c r="A834" s="1">
         <v>833</v>
       </c>
@@ -18568,7 +18568,7 @@
         <v>3.43549489600656</v>
       </c>
     </row>
-    <row r="835" hidden="1" spans="1:6">
+    <row r="835" spans="1:6">
       <c r="A835" s="1">
         <v>834</v>
       </c>
@@ -18589,7 +18589,7 @@
         <v>1.62046466381223</v>
       </c>
     </row>
-    <row r="836" hidden="1" spans="1:6">
+    <row r="836" spans="1:6">
       <c r="A836" s="1">
         <v>835</v>
       </c>
@@ -18610,7 +18610,7 @@
         <v>0.840410208910946</v>
       </c>
     </row>
-    <row r="837" hidden="1" spans="1:6">
+    <row r="837" spans="1:6">
       <c r="A837" s="1">
         <v>836</v>
       </c>
@@ -18631,7 +18631,7 @@
         <v>0.47230279303326</v>
       </c>
     </row>
-    <row r="838" hidden="1" spans="1:6">
+    <row r="838" spans="1:6">
       <c r="A838" s="1">
         <v>837</v>
       </c>
@@ -18652,7 +18652,7 @@
         <v>0.227369532517765</v>
       </c>
     </row>
-    <row r="839" hidden="1" spans="1:6">
+    <row r="839" spans="1:6">
       <c r="A839" s="1">
         <v>838</v>
       </c>
@@ -18673,7 +18673,7 @@
         <v>0.0694059831646799</v>
       </c>
     </row>
-    <row r="840" hidden="1" spans="1:6">
+    <row r="840" spans="1:6">
       <c r="A840" s="1">
         <v>839</v>
       </c>
@@ -18694,7 +18694,7 @@
         <v>0.0173068795196059</v>
       </c>
     </row>
-    <row r="841" hidden="1" spans="1:6">
+    <row r="841" spans="1:6">
       <c r="A841" s="1">
         <v>840</v>
       </c>
@@ -18715,7 +18715,7 @@
         <v>-43.5499688374827</v>
       </c>
     </row>
-    <row r="842" hidden="1" spans="1:6">
+    <row r="842" spans="1:6">
       <c r="A842" s="1">
         <v>841</v>
       </c>
@@ -18736,7 +18736,7 @@
         <v>38.1354056398479</v>
       </c>
     </row>
-    <row r="843" hidden="1" spans="1:6">
+    <row r="843" spans="1:6">
       <c r="A843" s="1">
         <v>842</v>
       </c>
@@ -18757,7 +18757,7 @@
         <v>15.7697406341616</v>
       </c>
     </row>
-    <row r="844" hidden="1" spans="1:6">
+    <row r="844" spans="1:6">
       <c r="A844" s="1">
         <v>843</v>
       </c>
@@ -18778,7 +18778,7 @@
         <v>7.7386441827499</v>
       </c>
     </row>
-    <row r="845" hidden="1" spans="1:6">
+    <row r="845" spans="1:6">
       <c r="A845" s="1">
         <v>844</v>
       </c>
@@ -18799,7 +18799,7 @@
         <v>3.24389835096894</v>
       </c>
     </row>
-    <row r="846" hidden="1" spans="1:6">
+    <row r="846" spans="1:6">
       <c r="A846" s="1">
         <v>845</v>
       </c>
@@ -18820,7 +18820,7 @@
         <v>1.38734331048632</v>
       </c>
     </row>
-    <row r="847" hidden="1" spans="1:6">
+    <row r="847" spans="1:6">
       <c r="A847" s="1">
         <v>846</v>
       </c>
@@ -18841,7 +18841,7 @@
         <v>0.756548629216579</v>
       </c>
     </row>
-    <row r="848" hidden="1" spans="1:6">
+    <row r="848" spans="1:6">
       <c r="A848" s="1">
         <v>847</v>
       </c>
@@ -18862,7 +18862,7 @@
         <v>0.426327999316441</v>
       </c>
     </row>
-    <row r="849" hidden="1" spans="1:6">
+    <row r="849" spans="1:6">
       <c r="A849" s="1">
         <v>848</v>
       </c>
@@ -18883,7 +18883,7 @@
         <v>0.237993407517913</v>
       </c>
     </row>
-    <row r="850" hidden="1" spans="1:6">
+    <row r="850" spans="1:6">
       <c r="A850" s="1">
         <v>849</v>
       </c>
@@ -18904,7 +18904,7 @@
         <v>0.129858426339419</v>
       </c>
     </row>
-    <row r="851" hidden="1" spans="1:6">
+    <row r="851" spans="1:6">
       <c r="A851" s="1">
         <v>850</v>
       </c>
@@ -19135,7 +19135,7 @@
         <v>7.63178665530417</v>
       </c>
     </row>
-    <row r="862" hidden="1" spans="1:6">
+    <row r="862" spans="1:6">
       <c r="A862" s="1">
         <v>861</v>
       </c>
@@ -19156,7 +19156,7 @@
         <v>26.2096792535888</v>
       </c>
     </row>
-    <row r="863" hidden="1" spans="1:6">
+    <row r="863" spans="1:6">
       <c r="A863" s="1">
         <v>862</v>
       </c>
@@ -19177,7 +19177,7 @@
         <v>4.79695002468092</v>
       </c>
     </row>
-    <row r="864" hidden="1" spans="1:6">
+    <row r="864" spans="1:6">
       <c r="A864" s="1">
         <v>863</v>
       </c>
@@ -19198,7 +19198,7 @@
         <v>1.74188735408279</v>
       </c>
     </row>
-    <row r="865" hidden="1" spans="1:6">
+    <row r="865" spans="1:6">
       <c r="A865" s="1">
         <v>864</v>
       </c>
@@ -19219,7 +19219,7 @@
         <v>0.65224513184918</v>
       </c>
     </row>
-    <row r="866" hidden="1" spans="1:6">
+    <row r="866" spans="1:6">
       <c r="A866" s="1">
         <v>865</v>
       </c>
@@ -19240,7 +19240,7 @@
         <v>0.321513262805431</v>
       </c>
     </row>
-    <row r="867" hidden="1" spans="1:6">
+    <row r="867" spans="1:6">
       <c r="A867" s="1">
         <v>866</v>
       </c>
@@ -19261,7 +19261,7 @@
         <v>0.0570641669320302</v>
       </c>
     </row>
-    <row r="868" hidden="1" spans="1:6">
+    <row r="868" spans="1:6">
       <c r="A868" s="1">
         <v>867</v>
       </c>
@@ -19282,7 +19282,7 @@
         <v>-0.0884604501764431</v>
       </c>
     </row>
-    <row r="869" hidden="1" spans="1:6">
+    <row r="869" spans="1:6">
       <c r="A869" s="1">
         <v>868</v>
       </c>
@@ -19303,7 +19303,7 @@
         <v>-0.168307489676739</v>
       </c>
     </row>
-    <row r="870" hidden="1" spans="1:6">
+    <row r="870" spans="1:6">
       <c r="A870" s="1">
         <v>869</v>
       </c>
@@ -19324,7 +19324,7 @@
         <v>-0.220094177020118</v>
       </c>
     </row>
-    <row r="871" hidden="1" spans="1:6">
+    <row r="871" spans="1:6">
       <c r="A871" s="1">
         <v>870</v>
       </c>
@@ -19345,7 +19345,7 @@
         <v>-28.7581555761237</v>
       </c>
     </row>
-    <row r="872" hidden="1" spans="1:6">
+    <row r="872" spans="1:6">
       <c r="A872" s="1">
         <v>871</v>
       </c>
@@ -19366,7 +19366,7 @@
         <v>32.8510952673666</v>
       </c>
     </row>
-    <row r="873" hidden="1" spans="1:6">
+    <row r="873" spans="1:6">
       <c r="A873" s="1">
         <v>872</v>
       </c>
@@ -19387,7 +19387,7 @@
         <v>6.14350028211472</v>
       </c>
     </row>
-    <row r="874" hidden="1" spans="1:6">
+    <row r="874" spans="1:6">
       <c r="A874" s="1">
         <v>873</v>
       </c>
@@ -19408,7 +19408,7 @@
         <v>2.38884561910208</v>
       </c>
     </row>
-    <row r="875" hidden="1" spans="1:6">
+    <row r="875" spans="1:6">
       <c r="A875" s="1">
         <v>874</v>
       </c>
@@ -19429,7 +19429,7 @@
         <v>1.10547199660099</v>
       </c>
     </row>
-    <row r="876" hidden="1" spans="1:6">
+    <row r="876" spans="1:6">
       <c r="A876" s="1">
         <v>875</v>
       </c>
@@ -19450,7 +19450,7 @@
         <v>0.533541510582316</v>
       </c>
     </row>
-    <row r="877" hidden="1" spans="1:6">
+    <row r="877" spans="1:6">
       <c r="A877" s="1">
         <v>876</v>
       </c>
@@ -19471,7 +19471,7 @@
         <v>0.205339905519824</v>
       </c>
     </row>
-    <row r="878" hidden="1" spans="1:6">
+    <row r="878" spans="1:6">
       <c r="A878" s="1">
         <v>877</v>
       </c>
@@ -19492,7 +19492,7 @@
         <v>0.0145057011497537</v>
       </c>
     </row>
-    <row r="879" hidden="1" spans="1:6">
+    <row r="879" spans="1:6">
       <c r="A879" s="1">
         <v>878</v>
       </c>
@@ -19513,7 +19513,7 @@
         <v>-0.0648897069787295</v>
       </c>
     </row>
-    <row r="880" hidden="1" spans="1:6">
+    <row r="880" spans="1:6">
       <c r="A880" s="1">
         <v>879</v>
       </c>
@@ -19534,7 +19534,7 @@
         <v>-0.125993967343802</v>
       </c>
     </row>
-    <row r="881" hidden="1" spans="1:6">
+    <row r="881" spans="1:6">
       <c r="A881" s="1">
         <v>880</v>
       </c>
@@ -19555,7 +19555,7 @@
         <v>-36.4158614524642</v>
       </c>
     </row>
-    <row r="882" hidden="1" spans="1:6">
+    <row r="882" spans="1:6">
       <c r="A882" s="1">
         <v>881</v>
       </c>
@@ -19576,7 +19576,7 @@
         <v>39.6515943303339</v>
       </c>
     </row>
-    <row r="883" hidden="1" spans="1:6">
+    <row r="883" spans="1:6">
       <c r="A883" s="1">
         <v>882</v>
       </c>
@@ -19597,7 +19597,7 @@
         <v>13.1677765360252</v>
       </c>
     </row>
-    <row r="884" hidden="1" spans="1:6">
+    <row r="884" spans="1:6">
       <c r="A884" s="1">
         <v>883</v>
       </c>
@@ -19618,7 +19618,7 @@
         <v>3.71524814373088</v>
       </c>
     </row>
-    <row r="885" hidden="1" spans="1:6">
+    <row r="885" spans="1:6">
       <c r="A885" s="1">
         <v>884</v>
       </c>
@@ -19639,7 +19639,7 @@
         <v>1.76159037808131</v>
       </c>
     </row>
-    <row r="886" hidden="1" spans="1:6">
+    <row r="886" spans="1:6">
       <c r="A886" s="1">
         <v>885</v>
       </c>
@@ -19660,7 +19660,7 @@
         <v>0.925320706456544</v>
       </c>
     </row>
-    <row r="887" hidden="1" spans="1:6">
+    <row r="887" spans="1:6">
       <c r="A887" s="1">
         <v>886</v>
       </c>
@@ -19681,7 +19681,7 @@
         <v>0.545691343264613</v>
       </c>
     </row>
-    <row r="888" hidden="1" spans="1:6">
+    <row r="888" spans="1:6">
       <c r="A888" s="1">
         <v>887</v>
       </c>
@@ -19702,7 +19702,7 @@
         <v>0.26408619709082</v>
       </c>
     </row>
-    <row r="889" hidden="1" spans="1:6">
+    <row r="889" spans="1:6">
       <c r="A889" s="1">
         <v>888</v>
       </c>
@@ -19723,7 +19723,7 @@
         <v>0.119960043874763</v>
       </c>
     </row>
-    <row r="890" hidden="1" spans="1:6">
+    <row r="890" spans="1:6">
       <c r="A890" s="1">
         <v>889</v>
       </c>
@@ -19744,7 +19744,7 @@
         <v>0.0312511021051035</v>
       </c>
     </row>
-    <row r="891" hidden="1" spans="1:6">
+    <row r="891" spans="1:6">
       <c r="A891" s="1">
         <v>890</v>
       </c>
@@ -19765,7 +19765,7 @@
         <v>-43.3912376624834</v>
       </c>
     </row>
-    <row r="892" hidden="1" spans="1:6">
+    <row r="892" spans="1:6">
       <c r="A892" s="1">
         <v>891</v>
       </c>
@@ -19786,7 +19786,7 @@
         <v>35.8654351928412</v>
       </c>
     </row>
-    <row r="893" hidden="1" spans="1:6">
+    <row r="893" spans="1:6">
       <c r="A893" s="1">
         <v>892</v>
       </c>
@@ -19807,7 +19807,7 @@
         <v>12.3152524659535</v>
       </c>
     </row>
-    <row r="894" hidden="1" spans="1:6">
+    <row r="894" spans="1:6">
       <c r="A894" s="1">
         <v>893</v>
       </c>
@@ -19828,7 +19828,7 @@
         <v>3.70326943723741</v>
       </c>
     </row>
-    <row r="895" hidden="1" spans="1:6">
+    <row r="895" spans="1:6">
       <c r="A895" s="1">
         <v>894</v>
       </c>
@@ -19849,7 +19849,7 @@
         <v>1.80349258970354</v>
       </c>
     </row>
-    <row r="896" hidden="1" spans="1:6">
+    <row r="896" spans="1:6">
       <c r="A896" s="1">
         <v>895</v>
       </c>
@@ -19870,7 +19870,7 @@
         <v>0.98241304077488</v>
       </c>
     </row>
-    <row r="897" hidden="1" spans="1:6">
+    <row r="897" spans="1:6">
       <c r="A897" s="1">
         <v>896</v>
       </c>
@@ -19891,7 +19891,7 @@
         <v>0.563301183462905</v>
       </c>
     </row>
-    <row r="898" hidden="1" spans="1:6">
+    <row r="898" spans="1:6">
       <c r="A898" s="1">
         <v>897</v>
       </c>
@@ -19912,7 +19912,7 @@
         <v>0.309822834816876</v>
       </c>
     </row>
-    <row r="899" hidden="1" spans="1:6">
+    <row r="899" spans="1:6">
       <c r="A899" s="1">
         <v>898</v>
       </c>
@@ -19933,7 +19933,7 @@
         <v>0.155503635137547</v>
       </c>
     </row>
-    <row r="900" hidden="1" spans="1:6">
+    <row r="900" spans="1:6">
       <c r="A900" s="1">
         <v>899</v>
       </c>
@@ -19954,7 +19954,7 @@
         <v>0.0516134295941339</v>
       </c>
     </row>
-    <row r="901" hidden="1" spans="1:6">
+    <row r="901" spans="1:6">
       <c r="A901" s="1">
         <v>900</v>
       </c>
@@ -20185,7 +20185,7 @@
         <v>5.07323264808508</v>
       </c>
     </row>
-    <row r="912" hidden="1" spans="1:6">
+    <row r="912" spans="1:6">
       <c r="A912" s="1">
         <v>911</v>
       </c>
@@ -20206,7 +20206,7 @@
         <v>18.4561092652375</v>
       </c>
     </row>
-    <row r="913" hidden="1" spans="1:6">
+    <row r="913" spans="1:6">
       <c r="A913" s="1">
         <v>912</v>
       </c>
@@ -20227,7 +20227,7 @@
         <v>4.13726977858186</v>
       </c>
     </row>
-    <row r="914" hidden="1" spans="1:6">
+    <row r="914" spans="1:6">
       <c r="A914" s="1">
         <v>913</v>
       </c>
@@ -20248,7 +20248,7 @@
         <v>1.44790569154411</v>
       </c>
     </row>
-    <row r="915" hidden="1" spans="1:6">
+    <row r="915" spans="1:6">
       <c r="A915" s="1">
         <v>914</v>
       </c>
@@ -20269,7 +20269,7 @@
         <v>0.553532318310774</v>
       </c>
     </row>
-    <row r="916" hidden="1" spans="1:6">
+    <row r="916" spans="1:6">
       <c r="A916" s="1">
         <v>915</v>
       </c>
@@ -20290,7 +20290,7 @@
         <v>0.116954488921677</v>
       </c>
     </row>
-    <row r="917" hidden="1" spans="1:6">
+    <row r="917" spans="1:6">
       <c r="A917" s="1">
         <v>916</v>
       </c>
@@ -20311,7 +20311,7 @@
         <v>-0.061311793891386</v>
       </c>
     </row>
-    <row r="918" hidden="1" spans="1:6">
+    <row r="918" spans="1:6">
       <c r="A918" s="1">
         <v>917</v>
       </c>
@@ -20332,7 +20332,7 @@
         <v>-0.197012295435714</v>
       </c>
     </row>
-    <row r="919" hidden="1" spans="1:6">
+    <row r="919" spans="1:6">
       <c r="A919" s="1">
         <v>918</v>
       </c>
@@ -20353,7 +20353,7 @@
         <v>-0.262525382619605</v>
       </c>
     </row>
-    <row r="920" hidden="1" spans="1:6">
+    <row r="920" spans="1:6">
       <c r="A920" s="1">
         <v>919</v>
       </c>
@@ -20374,7 +20374,7 @@
         <v>-0.267821554320235</v>
       </c>
     </row>
-    <row r="921" hidden="1" spans="1:6">
+    <row r="921" spans="1:6">
       <c r="A921" s="1">
         <v>920</v>
       </c>
@@ -20395,7 +20395,7 @@
         <v>-23.1403690101289</v>
       </c>
     </row>
-    <row r="922" hidden="1" spans="1:6">
+    <row r="922" spans="1:6">
       <c r="A922" s="1">
         <v>921</v>
       </c>
@@ -20416,7 +20416,7 @@
         <v>35.4092322087103</v>
       </c>
     </row>
-    <row r="923" hidden="1" spans="1:6">
+    <row r="923" spans="1:6">
       <c r="A923" s="1">
         <v>922</v>
       </c>
@@ -20437,7 +20437,7 @@
         <v>6.6262698152639</v>
       </c>
     </row>
-    <row r="924" hidden="1" spans="1:6">
+    <row r="924" spans="1:6">
       <c r="A924" s="1">
         <v>923</v>
       </c>
@@ -20458,7 +20458,7 @@
         <v>2.58531026802363</v>
       </c>
     </row>
-    <row r="925" hidden="1" spans="1:6">
+    <row r="925" spans="1:6">
       <c r="A925" s="1">
         <v>924</v>
       </c>
@@ -20479,7 +20479,7 @@
         <v>1.2511214480067</v>
       </c>
     </row>
-    <row r="926" hidden="1" spans="1:6">
+    <row r="926" spans="1:6">
       <c r="A926" s="1">
         <v>925</v>
       </c>
@@ -20500,7 +20500,7 @@
         <v>0.666060679513572</v>
       </c>
     </row>
-    <row r="927" hidden="1" spans="1:6">
+    <row r="927" spans="1:6">
       <c r="A927" s="1">
         <v>926</v>
       </c>
@@ -20521,7 +20521,7 @@
         <v>0.309278014673681</v>
       </c>
     </row>
-    <row r="928" hidden="1" spans="1:6">
+    <row r="928" spans="1:6">
       <c r="A928" s="1">
         <v>927</v>
       </c>
@@ -20542,7 +20542,7 @@
         <v>0.0994368713467977</v>
       </c>
     </row>
-    <row r="929" hidden="1" spans="1:6">
+    <row r="929" spans="1:6">
       <c r="A929" s="1">
         <v>928</v>
       </c>
@@ -20563,7 +20563,7 @@
         <v>-0.0278386944880167</v>
       </c>
     </row>
-    <row r="930" hidden="1" spans="1:6">
+    <row r="930" spans="1:6">
       <c r="A930" s="1">
         <v>929</v>
       </c>
@@ -20584,7 +20584,7 @@
         <v>-0.0879344337175267</v>
       </c>
     </row>
-    <row r="931" hidden="1" spans="1:6">
+    <row r="931" spans="1:6">
       <c r="A931" s="1">
         <v>930</v>
       </c>
@@ -20605,7 +20605,7 @@
         <v>-38.2890701062852</v>
       </c>
     </row>
-    <row r="932" hidden="1" spans="1:6">
+    <row r="932" spans="1:6">
       <c r="A932" s="1">
         <v>931</v>
       </c>
@@ -20626,7 +20626,7 @@
         <v>40.3026757007357</v>
       </c>
     </row>
-    <row r="933" hidden="1" spans="1:6">
+    <row r="933" spans="1:6">
       <c r="A933" s="1">
         <v>932</v>
       </c>
@@ -20647,7 +20647,7 @@
         <v>14.7052629176895</v>
       </c>
     </row>
-    <row r="934" hidden="1" spans="1:6">
+    <row r="934" spans="1:6">
       <c r="A934" s="1">
         <v>933</v>
       </c>
@@ -20668,7 +20668,7 @@
         <v>4.13577329080459</v>
       </c>
     </row>
-    <row r="935" hidden="1" spans="1:6">
+    <row r="935" spans="1:6">
       <c r="A935" s="1">
         <v>934</v>
       </c>
@@ -20689,7 +20689,7 @@
         <v>1.93393215526181</v>
       </c>
     </row>
-    <row r="936" hidden="1" spans="1:6">
+    <row r="936" spans="1:6">
       <c r="A936" s="1">
         <v>935</v>
       </c>
@@ -20710,7 +20710,7 @@
         <v>1.06567998403976</v>
       </c>
     </row>
-    <row r="937" hidden="1" spans="1:6">
+    <row r="937" spans="1:6">
       <c r="A937" s="1">
         <v>936</v>
       </c>
@@ -20731,7 +20731,7 @@
         <v>0.612224708679866</v>
       </c>
     </row>
-    <row r="938" hidden="1" spans="1:6">
+    <row r="938" spans="1:6">
       <c r="A938" s="1">
         <v>937</v>
       </c>
@@ -20752,7 +20752,7 @@
         <v>0.350257086456711</v>
       </c>
     </row>
-    <row r="939" hidden="1" spans="1:6">
+    <row r="939" spans="1:6">
       <c r="A939" s="1">
         <v>938</v>
       </c>
@@ -20773,7 +20773,7 @@
         <v>0.187470314852325</v>
       </c>
     </row>
-    <row r="940" hidden="1" spans="1:6">
+    <row r="940" spans="1:6">
       <c r="A940" s="1">
         <v>939</v>
       </c>
@@ -20794,7 +20794,7 @@
         <v>0.0844636665708963</v>
       </c>
     </row>
-    <row r="941" hidden="1" spans="1:6">
+    <row r="941" spans="1:6">
       <c r="A941" s="1">
         <v>940</v>
       </c>
@@ -20815,7 +20815,7 @@
         <v>-44.7184493709929</v>
       </c>
     </row>
-    <row r="942" hidden="1" spans="1:6">
+    <row r="942" spans="1:6">
       <c r="A942" s="1">
         <v>941</v>
       </c>
@@ -20836,7 +20836,7 @@
         <v>36.4768872452835</v>
       </c>
     </row>
-    <row r="943" hidden="1" spans="1:6">
+    <row r="943" spans="1:6">
       <c r="A943" s="1">
         <v>942</v>
       </c>
@@ -20857,7 +20857,7 @@
         <v>13.69492583658</v>
       </c>
     </row>
-    <row r="944" hidden="1" spans="1:6">
+    <row r="944" spans="1:6">
       <c r="A944" s="1">
         <v>943</v>
       </c>
@@ -20878,7 +20878,7 @@
         <v>4.06647189638657</v>
       </c>
     </row>
-    <row r="945" hidden="1" spans="1:6">
+    <row r="945" spans="1:6">
       <c r="A945" s="1">
         <v>944</v>
       </c>
@@ -20899,7 +20899,7 @@
         <v>1.98651016077377</v>
       </c>
     </row>
-    <row r="946" hidden="1" spans="1:6">
+    <row r="946" spans="1:6">
       <c r="A946" s="1">
         <v>945</v>
       </c>
@@ -20920,7 +20920,7 @@
         <v>1.11646014458495</v>
       </c>
     </row>
-    <row r="947" hidden="1" spans="1:6">
+    <row r="947" spans="1:6">
       <c r="A947" s="1">
         <v>946</v>
       </c>
@@ -20941,7 +20941,7 @@
         <v>0.656377957574985</v>
       </c>
     </row>
-    <row r="948" hidden="1" spans="1:6">
+    <row r="948" spans="1:6">
       <c r="A948" s="1">
         <v>947</v>
       </c>
@@ -20962,7 +20962,7 @@
         <v>0.385078249947367</v>
       </c>
     </row>
-    <row r="949" hidden="1" spans="1:6">
+    <row r="949" spans="1:6">
       <c r="A949" s="1">
         <v>948</v>
       </c>
@@ -20983,7 +20983,7 @@
         <v>0.216426517770952</v>
       </c>
     </row>
-    <row r="950" hidden="1" spans="1:6">
+    <row r="950" spans="1:6">
       <c r="A950" s="1">
         <v>949</v>
       </c>
@@ -21004,7 +21004,7 @@
         <v>0.110406462792629</v>
       </c>
     </row>
-    <row r="951" hidden="1" spans="1:6">
+    <row r="951" spans="1:6">
       <c r="A951" s="1">
         <v>950</v>
       </c>
@@ -21235,7 +21235,7 @@
         <v>13.9305421876682</v>
       </c>
     </row>
-    <row r="962" hidden="1" spans="1:6">
+    <row r="962" spans="1:6">
       <c r="A962" s="1">
         <v>961</v>
       </c>
@@ -21256,7 +21256,7 @@
         <v>20.7610470001868</v>
       </c>
     </row>
-    <row r="963" hidden="1" spans="1:6">
+    <row r="963" spans="1:6">
       <c r="A963" s="1">
         <v>962</v>
       </c>
@@ -21277,7 +21277,7 @@
         <v>4.28673565240009</v>
       </c>
     </row>
-    <row r="964" hidden="1" spans="1:6">
+    <row r="964" spans="1:6">
       <c r="A964" s="1">
         <v>963</v>
       </c>
@@ -21298,7 +21298,7 @@
         <v>1.49786597661326</v>
       </c>
     </row>
-    <row r="965" hidden="1" spans="1:6">
+    <row r="965" spans="1:6">
       <c r="A965" s="1">
         <v>964</v>
       </c>
@@ -21319,7 +21319,7 @@
         <v>0.619299361258779</v>
       </c>
     </row>
-    <row r="966" hidden="1" spans="1:6">
+    <row r="966" spans="1:6">
       <c r="A966" s="1">
         <v>965</v>
       </c>
@@ -21340,7 +21340,7 @@
         <v>0.189741188438422</v>
       </c>
     </row>
-    <row r="967" hidden="1" spans="1:6">
+    <row r="967" spans="1:6">
       <c r="A967" s="1">
         <v>966</v>
       </c>
@@ -21361,7 +21361,7 @@
         <v>0.00348503266533236</v>
       </c>
     </row>
-    <row r="968" hidden="1" spans="1:6">
+    <row r="968" spans="1:6">
       <c r="A968" s="1">
         <v>967</v>
       </c>
@@ -21382,7 +21382,7 @@
         <v>-0.145367177462202</v>
       </c>
     </row>
-    <row r="969" hidden="1" spans="1:6">
+    <row r="969" spans="1:6">
       <c r="A969" s="1">
         <v>968</v>
       </c>
@@ -21403,7 +21403,7 @@
         <v>-0.176649061539487</v>
       </c>
     </row>
-    <row r="970" hidden="1" spans="1:6">
+    <row r="970" spans="1:6">
       <c r="A970" s="1">
         <v>969</v>
       </c>
@@ -21424,7 +21424,7 @@
         <v>-0.272854621228051</v>
       </c>
     </row>
-    <row r="971" hidden="1" spans="1:6">
+    <row r="971" spans="1:6">
       <c r="A971" s="1">
         <v>970</v>
       </c>
@@ -21445,7 +21445,7 @@
         <v>-25.1182020569489</v>
       </c>
     </row>
-    <row r="972" hidden="1" spans="1:6">
+    <row r="972" spans="1:6">
       <c r="A972" s="1">
         <v>971</v>
       </c>
@@ -21466,7 +21466,7 @@
         <v>37.8557848281196</v>
       </c>
     </row>
-    <row r="973" hidden="1" spans="1:6">
+    <row r="973" spans="1:6">
       <c r="A973" s="1">
         <v>972</v>
       </c>
@@ -21487,7 +21487,7 @@
         <v>7.20823089949632</v>
       </c>
     </row>
-    <row r="974" hidden="1" spans="1:6">
+    <row r="974" spans="1:6">
       <c r="A974" s="1">
         <v>973</v>
       </c>
@@ -21508,7 +21508,7 @@
         <v>2.71516225546218</v>
       </c>
     </row>
-    <row r="975" hidden="1" spans="1:6">
+    <row r="975" spans="1:6">
       <c r="A975" s="1">
         <v>974</v>
       </c>
@@ -21529,7 +21529,7 @@
         <v>1.3367149863945</v>
       </c>
     </row>
-    <row r="976" hidden="1" spans="1:6">
+    <row r="976" spans="1:6">
       <c r="A976" s="1">
         <v>975</v>
       </c>
@@ -21550,7 +21550,7 @@
         <v>0.693851123967167</v>
       </c>
     </row>
-    <row r="977" hidden="1" spans="1:6">
+    <row r="977" spans="1:6">
       <c r="A977" s="1">
         <v>976</v>
       </c>
@@ -21571,7 +21571,7 @@
         <v>0.404422804888232</v>
       </c>
     </row>
-    <row r="978" hidden="1" spans="1:6">
+    <row r="978" spans="1:6">
       <c r="A978" s="1">
         <v>977</v>
       </c>
@@ -21592,7 +21592,7 @@
         <v>0.143234844724594</v>
       </c>
     </row>
-    <row r="979" hidden="1" spans="1:6">
+    <row r="979" spans="1:6">
       <c r="A979" s="1">
         <v>978</v>
       </c>
@@ -21613,7 +21613,7 @@
         <v>0.00777854344372009</v>
       </c>
     </row>
-    <row r="980" hidden="1" spans="1:6">
+    <row r="980" spans="1:6">
       <c r="A980" s="1">
         <v>979</v>
       </c>
@@ -21634,7 +21634,7 @@
         <v>-0.0478753571336846</v>
       </c>
     </row>
-    <row r="981" hidden="1" spans="1:6">
+    <row r="981" spans="1:6">
       <c r="A981" s="1">
         <v>980</v>
       </c>
@@ -21655,7 +21655,7 @@
         <v>-37.7497592212673</v>
       </c>
     </row>
-    <row r="982" hidden="1" spans="1:6">
+    <row r="982" spans="1:6">
       <c r="A982" s="1">
         <v>981</v>
       </c>
@@ -21676,7 +21676,7 @@
         <v>35.7429270436424</v>
       </c>
     </row>
-    <row r="983" hidden="1" spans="1:6">
+    <row r="983" spans="1:6">
       <c r="A983" s="1">
         <v>982</v>
       </c>
@@ -21697,7 +21697,7 @@
         <v>7.71387245497894</v>
       </c>
     </row>
-    <row r="984" hidden="1" spans="1:6">
+    <row r="984" spans="1:6">
       <c r="A984" s="1">
         <v>983</v>
       </c>
@@ -21718,7 +21718,7 @@
         <v>2.92918127556094</v>
       </c>
     </row>
-    <row r="985" hidden="1" spans="1:6">
+    <row r="985" spans="1:6">
       <c r="A985" s="1">
         <v>984</v>
       </c>
@@ -21739,7 +21739,7 @@
         <v>1.53297410205555</v>
       </c>
     </row>
-    <row r="986" hidden="1" spans="1:6">
+    <row r="986" spans="1:6">
       <c r="A986" s="1">
         <v>985</v>
       </c>
@@ -21760,7 +21760,7 @@
         <v>0.845146525358509</v>
       </c>
     </row>
-    <row r="987" hidden="1" spans="1:6">
+    <row r="987" spans="1:6">
       <c r="A987" s="1">
         <v>986</v>
       </c>
@@ -21781,7 +21781,7 @@
         <v>0.435421935800524</v>
       </c>
     </row>
-    <row r="988" hidden="1" spans="1:6">
+    <row r="988" spans="1:6">
       <c r="A988" s="1">
         <v>987</v>
       </c>
@@ -21802,7 +21802,7 @@
         <v>0.238523347932433</v>
       </c>
     </row>
-    <row r="989" hidden="1" spans="1:6">
+    <row r="989" spans="1:6">
       <c r="A989" s="1">
         <v>988</v>
       </c>
@@ -21823,7 +21823,7 @@
         <v>0.0694102150355356</v>
       </c>
     </row>
-    <row r="990" hidden="1" spans="1:6">
+    <row r="990" spans="1:6">
       <c r="A990" s="1">
         <v>989</v>
       </c>
@@ -21844,7 +21844,7 @@
         <v>-0.0209214135850819</v>
       </c>
     </row>
-    <row r="991" hidden="1" spans="1:6">
+    <row r="991" spans="1:6">
       <c r="A991" s="1">
         <v>990</v>
       </c>
@@ -21865,7 +21865,7 @@
         <v>-39.5718113546963</v>
       </c>
     </row>
-    <row r="992" hidden="1" spans="1:6">
+    <row r="992" spans="1:6">
       <c r="A992" s="1">
         <v>991</v>
       </c>
@@ -21886,7 +21886,7 @@
         <v>37.296323529911</v>
       </c>
     </row>
-    <row r="993" hidden="1" spans="1:6">
+    <row r="993" spans="1:6">
       <c r="A993" s="1">
         <v>992</v>
       </c>
@@ -21907,7 +21907,7 @@
         <v>14.7872395712723</v>
       </c>
     </row>
-    <row r="994" hidden="1" spans="1:6">
+    <row r="994" spans="1:6">
       <c r="A994" s="1">
         <v>993</v>
       </c>
@@ -21928,7 +21928,7 @@
         <v>4.64978179161808</v>
       </c>
     </row>
-    <row r="995" hidden="1" spans="1:6">
+    <row r="995" spans="1:6">
       <c r="A995" s="1">
         <v>994</v>
       </c>
@@ -21949,7 +21949,7 @@
         <v>2.12062646491717</v>
       </c>
     </row>
-    <row r="996" hidden="1" spans="1:6">
+    <row r="996" spans="1:6">
       <c r="A996" s="1">
         <v>995</v>
       </c>
@@ -21970,7 +21970,7 @@
         <v>1.19575350604666</v>
       </c>
     </row>
-    <row r="997" hidden="1" spans="1:6">
+    <row r="997" spans="1:6">
       <c r="A997" s="1">
         <v>996</v>
       </c>
@@ -21991,7 +21991,7 @@
         <v>0.719507487561126</v>
       </c>
     </row>
-    <row r="998" hidden="1" spans="1:6">
+    <row r="998" spans="1:6">
       <c r="A998" s="1">
         <v>997</v>
       </c>
@@ -22012,7 +22012,7 @@
         <v>0.430062330311142</v>
       </c>
     </row>
-    <row r="999" hidden="1" spans="1:6">
+    <row r="999" spans="1:6">
       <c r="A999" s="1">
         <v>998</v>
       </c>
@@ -22033,7 +22033,7 @@
         <v>0.251712935691423</v>
       </c>
     </row>
-    <row r="1000" hidden="1" spans="1:6">
+    <row r="1000" spans="1:6">
       <c r="A1000" s="1">
         <v>999</v>
       </c>
@@ -22054,7 +22054,7 @@
         <v>0.13821869810942</v>
       </c>
     </row>
-    <row r="1001" hidden="1" spans="1:6">
+    <row r="1001" spans="1:6">
       <c r="A1001" s="1">
         <v>1000</v>
       </c>
@@ -22077,11 +22077,6 @@
     </row>
   </sheetData>
   <autoFilter ref="B1:E1001">
-    <filterColumn colId="2">
-      <customFilters>
-        <customFilter operator="equal" val="0.1"/>
-      </customFilters>
-    </filterColumn>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
